--- a/Copy of Marketing Analytics Quiz.xlsx
+++ b/Copy of Marketing Analytics Quiz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/christiana_o_mensah_accenture_com/Documents/Documents/Projects/Sql-Project-Assessment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/christiana_o_mensah_accenture_com/Documents/Documents/Projects/Sql-Project-Assessment/ForcastingCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{BD547CEA-C048-4FE9-A6E8-22B6959B1BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{374AB514-94BA-4A0E-B380-1FF3E8C3818D}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{BD547CEA-C048-4FE9-A6E8-22B6959B1BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41CAC6DC-B535-456D-B4BD-B5ACECC42EFB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecasting Case " sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Below are monthly sales for a business. The data represents total sales generated during that month. (E.g. From January 1, 2019 - January 31, 2019 the business sold 12,903 widgets.)</t>
-  </si>
-  <si>
-    <t>Month</t>
   </si>
   <si>
     <t>Sales</t>
@@ -357,6 +354,9 @@
   <si>
     <t>A) Select Customer.customer_id,  avg(visit_duration)/365 AS "Average Days" from Customer, Visit Where Customer.customer_id = Visit.customer_id AND region like 'North America' group by Customer.customer_id</t>
   </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
@@ -659,14 +659,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -681,6 +673,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,7 +902,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1056,14 +1056,14 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -29119,24 +29119,24 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="21">
         <v>43373</v>
@@ -29148,12 +29148,12 @@
         <v>104.59061485608808</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="21">
         <v>43374</v>
@@ -29165,12 +29165,12 @@
         <v>1457.7816642186217</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="21">
         <v>43375</v>
@@ -29182,12 +29182,12 @@
         <v>304.02857238034176</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="21">
         <v>43376</v>
@@ -29199,12 +29199,12 @@
         <v>1274.0149074607225</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="21">
         <v>43377</v>
@@ -29216,12 +29216,12 @@
         <v>487.75352016358335</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="21">
         <v>43378</v>
@@ -29233,12 +29233,12 @@
         <v>202.68592288149168</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="21">
         <v>43379</v>
@@ -29250,12 +29250,12 @@
         <v>668.53451905058591</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="21">
         <v>43380</v>
@@ -29267,12 +29267,12 @@
         <v>145.46981945609912</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="21">
         <v>43381</v>
@@ -29284,12 +29284,12 @@
         <v>1408.2566412156048</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="21">
         <v>43382</v>
@@ -29303,7 +29303,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="21">
         <v>43383</v>
@@ -29317,7 +29317,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="21">
         <v>43384</v>
@@ -29329,12 +29329,12 @@
         <v>1201.8064244974041</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="21">
         <v>43385</v>
@@ -29348,7 +29348,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="21">
         <v>43386</v>
@@ -29362,7 +29362,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="21">
         <v>43387</v>
@@ -29376,7 +29376,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="21">
         <v>43388</v>
@@ -29390,7 +29390,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="21">
         <v>43389</v>
@@ -29404,7 +29404,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="21">
         <v>43390</v>
@@ -29418,7 +29418,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="21">
         <v>43391</v>
@@ -29432,7 +29432,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="21">
         <v>43392</v>
@@ -29446,7 +29446,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="21">
         <v>43393</v>
@@ -29460,7 +29460,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="21">
         <v>43394</v>
@@ -29474,7 +29474,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="21">
         <v>43395</v>
@@ -29488,7 +29488,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="21">
         <v>43396</v>
@@ -29502,7 +29502,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="21">
         <v>43397</v>
@@ -29516,7 +29516,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="21">
         <v>43398</v>
@@ -29530,7 +29530,7 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="21">
         <v>43399</v>
@@ -29544,7 +29544,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="21">
         <v>43400</v>
@@ -29558,7 +29558,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="21">
         <v>43401</v>
@@ -29572,7 +29572,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="21">
         <v>43402</v>
@@ -29586,7 +29586,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="21">
         <v>43403</v>
@@ -29600,7 +29600,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="21">
         <v>43404</v>
@@ -29614,7 +29614,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="21">
         <v>43405</v>
@@ -29628,7 +29628,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="21">
         <v>43406</v>
@@ -29642,7 +29642,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="21">
         <v>43407</v>
@@ -29656,7 +29656,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="21">
         <v>43408</v>
@@ -29670,7 +29670,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="21">
         <v>43409</v>
@@ -29684,7 +29684,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="21">
         <v>43410</v>
@@ -29698,7 +29698,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="21">
         <v>43411</v>
@@ -29712,7 +29712,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" s="21">
         <v>43412</v>
@@ -29726,7 +29726,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" s="21">
         <v>43413</v>
@@ -29740,7 +29740,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" s="21">
         <v>43414</v>
@@ -29754,7 +29754,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="21">
         <v>43415</v>
@@ -29768,7 +29768,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" s="21">
         <v>43416</v>
@@ -29782,7 +29782,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46" s="21">
         <v>43417</v>
@@ -29796,7 +29796,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47" s="21">
         <v>43418</v>
@@ -29810,7 +29810,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" s="21">
         <v>43419</v>
@@ -29824,7 +29824,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="A49" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" s="21">
         <v>43420</v>
@@ -29838,7 +29838,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50" s="21">
         <v>43421</v>
@@ -29852,7 +29852,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="A51" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" s="21">
         <v>43422</v>
@@ -29866,7 +29866,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1">
       <c r="A52" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52" s="21">
         <v>43423</v>
@@ -29880,7 +29880,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="A53" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53" s="21">
         <v>43424</v>
@@ -29894,7 +29894,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="A54" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54" s="21">
         <v>43425</v>
@@ -29908,7 +29908,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="A55" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55" s="21">
         <v>43426</v>
@@ -29922,7 +29922,7 @@
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1">
       <c r="A56" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56" s="21">
         <v>43427</v>
@@ -29936,7 +29936,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57" s="21">
         <v>43428</v>
@@ -29950,7 +29950,7 @@
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="A58" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58" s="21">
         <v>43429</v>
@@ -29964,7 +29964,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="A59" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59" s="21">
         <v>43430</v>
@@ -29978,7 +29978,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="A60" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60" s="21">
         <v>43431</v>
@@ -29992,7 +29992,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="A61" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61" s="21">
         <v>43432</v>
@@ -30006,7 +30006,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62" s="21">
         <v>43433</v>
@@ -30020,7 +30020,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" s="21">
         <v>43434</v>
@@ -30034,7 +30034,7 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1">
       <c r="A64" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" s="21">
         <v>43435</v>
@@ -30048,7 +30048,7 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1">
       <c r="A65" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65" s="21">
         <v>43436</v>
@@ -30062,7 +30062,7 @@
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1">
       <c r="A66" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B66" s="21">
         <v>43437</v>
@@ -30076,7 +30076,7 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1">
       <c r="A67" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B67" s="21">
         <v>43438</v>
@@ -30090,7 +30090,7 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1">
       <c r="A68" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68" s="21">
         <v>43439</v>
@@ -30104,7 +30104,7 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1">
       <c r="A69" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B69" s="21">
         <v>43440</v>
@@ -30118,7 +30118,7 @@
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1">
       <c r="A70" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70" s="21">
         <v>43441</v>
@@ -30132,7 +30132,7 @@
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1">
       <c r="A71" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71" s="21">
         <v>43442</v>
@@ -30146,7 +30146,7 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1">
       <c r="A72" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72" s="21">
         <v>43443</v>
@@ -30160,7 +30160,7 @@
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1">
       <c r="A73" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73" s="21">
         <v>43444</v>
@@ -30174,7 +30174,7 @@
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1">
       <c r="A74" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B74" s="21">
         <v>43445</v>
@@ -30188,7 +30188,7 @@
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1">
       <c r="A75" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B75" s="21">
         <v>43446</v>
@@ -30202,7 +30202,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B76" s="21">
         <v>43447</v>
@@ -30216,7 +30216,7 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B77" s="21">
         <v>43448</v>
@@ -30230,7 +30230,7 @@
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B78" s="21">
         <v>43449</v>
@@ -30244,7 +30244,7 @@
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B79" s="21">
         <v>43450</v>
@@ -30258,7 +30258,7 @@
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80" s="21">
         <v>43451</v>
@@ -30272,7 +30272,7 @@
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1">
       <c r="A81" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B81" s="21">
         <v>43452</v>
@@ -30286,7 +30286,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1">
       <c r="A82" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82" s="21">
         <v>43453</v>
@@ -30300,7 +30300,7 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1">
       <c r="A83" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B83" s="21">
         <v>43454</v>
@@ -30314,7 +30314,7 @@
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1">
       <c r="A84" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84" s="21">
         <v>43455</v>
@@ -30328,7 +30328,7 @@
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1">
       <c r="A85" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" s="21">
         <v>43456</v>
@@ -30342,7 +30342,7 @@
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1">
       <c r="A86" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86" s="21">
         <v>43457</v>
@@ -30356,7 +30356,7 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1">
       <c r="A87" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B87" s="21">
         <v>43458</v>
@@ -30370,7 +30370,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1">
       <c r="A88" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B88" s="21">
         <v>43459</v>
@@ -30384,7 +30384,7 @@
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1">
       <c r="A89" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89" s="21">
         <v>43460</v>
@@ -30398,7 +30398,7 @@
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1">
       <c r="A90" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90" s="21">
         <v>43461</v>
@@ -30412,7 +30412,7 @@
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1">
       <c r="A91" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B91" s="21">
         <v>43462</v>
@@ -30426,7 +30426,7 @@
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1">
       <c r="A92" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B92" s="21">
         <v>43463</v>
@@ -30440,7 +30440,7 @@
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1">
       <c r="A93" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B93" s="21">
         <v>43464</v>
@@ -30454,7 +30454,7 @@
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1">
       <c r="A94" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B94" s="21">
         <v>43465</v>
@@ -30468,7 +30468,7 @@
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1">
       <c r="A95" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B95" s="21">
         <v>43373</v>
@@ -30482,7 +30482,7 @@
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B96" s="21">
         <v>43374</v>
@@ -30496,7 +30496,7 @@
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1">
       <c r="A97" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B97" s="21">
         <v>43375</v>
@@ -30510,7 +30510,7 @@
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1">
       <c r="A98" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B98" s="21">
         <v>43376</v>
@@ -30524,7 +30524,7 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1">
       <c r="A99" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B99" s="21">
         <v>43374</v>
@@ -30538,7 +30538,7 @@
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B100" s="21">
         <v>43375</v>
@@ -30552,7 +30552,7 @@
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1">
       <c r="A101" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B101" s="21">
         <v>43376</v>
@@ -30566,7 +30566,7 @@
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1">
       <c r="A102" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B102" s="21">
         <v>43377</v>
@@ -30580,7 +30580,7 @@
     </row>
     <row r="103" spans="1:4" ht="15.75" customHeight="1">
       <c r="A103" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B103" s="21">
         <v>43378</v>
@@ -30594,7 +30594,7 @@
     </row>
     <row r="104" spans="1:4" ht="15.75" customHeight="1">
       <c r="A104" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B104" s="21">
         <v>43379</v>
@@ -30608,7 +30608,7 @@
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1">
       <c r="A105" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B105" s="21">
         <v>43380</v>
@@ -30622,7 +30622,7 @@
     </row>
     <row r="106" spans="1:4" ht="15.75" customHeight="1">
       <c r="A106" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B106" s="21">
         <v>43381</v>
@@ -30636,7 +30636,7 @@
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1">
       <c r="A107" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B107" s="21">
         <v>43382</v>
@@ -30650,7 +30650,7 @@
     </row>
     <row r="108" spans="1:4" ht="15.75" customHeight="1">
       <c r="A108" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B108" s="21">
         <v>43383</v>
@@ -30664,7 +30664,7 @@
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1">
       <c r="A109" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B109" s="21">
         <v>43384</v>
@@ -30678,7 +30678,7 @@
     </row>
     <row r="110" spans="1:4" ht="15.75" customHeight="1">
       <c r="A110" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B110" s="21">
         <v>43385</v>
@@ -30692,7 +30692,7 @@
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1">
       <c r="A111" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B111" s="21">
         <v>43386</v>
@@ -30706,7 +30706,7 @@
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1">
       <c r="A112" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B112" s="21">
         <v>43387</v>
@@ -30720,7 +30720,7 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1">
       <c r="A113" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B113" s="21">
         <v>43388</v>
@@ -30734,7 +30734,7 @@
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1">
       <c r="A114" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B114" s="21">
         <v>43389</v>
@@ -30748,7 +30748,7 @@
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1">
       <c r="A115" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B115" s="21">
         <v>43390</v>
@@ -30762,7 +30762,7 @@
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1">
       <c r="A116" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B116" s="21">
         <v>43391</v>
@@ -30776,7 +30776,7 @@
     </row>
     <row r="117" spans="1:4" ht="15.75" customHeight="1">
       <c r="A117" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B117" s="21">
         <v>43392</v>
@@ -30790,7 +30790,7 @@
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1">
       <c r="A118" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B118" s="21">
         <v>43393</v>
@@ -30804,7 +30804,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1">
       <c r="A119" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B119" s="21">
         <v>43394</v>
@@ -30818,7 +30818,7 @@
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1">
       <c r="A120" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B120" s="21">
         <v>43395</v>
@@ -30832,7 +30832,7 @@
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1">
       <c r="A121" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B121" s="21">
         <v>43396</v>
@@ -30846,7 +30846,7 @@
     </row>
     <row r="122" spans="1:4" ht="15.75" customHeight="1">
       <c r="A122" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B122" s="21">
         <v>43397</v>
@@ -30860,7 +30860,7 @@
     </row>
     <row r="123" spans="1:4" ht="15.75" customHeight="1">
       <c r="A123" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B123" s="21">
         <v>43398</v>
@@ -30874,7 +30874,7 @@
     </row>
     <row r="124" spans="1:4" ht="15.75" customHeight="1">
       <c r="A124" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B124" s="21">
         <v>43399</v>
@@ -30888,7 +30888,7 @@
     </row>
     <row r="125" spans="1:4" ht="15.75" customHeight="1">
       <c r="A125" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B125" s="21">
         <v>43400</v>
@@ -30902,7 +30902,7 @@
     </row>
     <row r="126" spans="1:4" ht="15.75" customHeight="1">
       <c r="A126" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B126" s="21">
         <v>43401</v>
@@ -30916,7 +30916,7 @@
     </row>
     <row r="127" spans="1:4" ht="15.75" customHeight="1">
       <c r="A127" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B127" s="21">
         <v>43402</v>
@@ -30930,7 +30930,7 @@
     </row>
     <row r="128" spans="1:4" ht="15.75" customHeight="1">
       <c r="A128" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B128" s="21">
         <v>43403</v>
@@ -30944,7 +30944,7 @@
     </row>
     <row r="129" spans="1:4" ht="15.75" customHeight="1">
       <c r="A129" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B129" s="21">
         <v>43404</v>
@@ -30958,7 +30958,7 @@
     </row>
     <row r="130" spans="1:4" ht="15.75" customHeight="1">
       <c r="A130" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B130" s="21">
         <v>43405</v>
@@ -30972,7 +30972,7 @@
     </row>
     <row r="131" spans="1:4" ht="15.75" customHeight="1">
       <c r="A131" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B131" s="21">
         <v>43406</v>
@@ -30986,7 +30986,7 @@
     </row>
     <row r="132" spans="1:4" ht="15.75" customHeight="1">
       <c r="A132" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B132" s="21">
         <v>43407</v>
@@ -31000,7 +31000,7 @@
     </row>
     <row r="133" spans="1:4" ht="15.75" customHeight="1">
       <c r="A133" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B133" s="21">
         <v>43408</v>
@@ -31014,7 +31014,7 @@
     </row>
     <row r="134" spans="1:4" ht="15.75" customHeight="1">
       <c r="A134" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B134" s="21">
         <v>43409</v>
@@ -31028,7 +31028,7 @@
     </row>
     <row r="135" spans="1:4" ht="15.75" customHeight="1">
       <c r="A135" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B135" s="21">
         <v>43410</v>
@@ -31042,7 +31042,7 @@
     </row>
     <row r="136" spans="1:4" ht="15.75" customHeight="1">
       <c r="A136" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B136" s="21">
         <v>43411</v>
@@ -31056,7 +31056,7 @@
     </row>
     <row r="137" spans="1:4" ht="15.75" customHeight="1">
       <c r="A137" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B137" s="21">
         <v>43412</v>
@@ -31070,7 +31070,7 @@
     </row>
     <row r="138" spans="1:4" ht="15.75" customHeight="1">
       <c r="A138" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B138" s="21">
         <v>43413</v>
@@ -31084,7 +31084,7 @@
     </row>
     <row r="139" spans="1:4" ht="15.75" customHeight="1">
       <c r="A139" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B139" s="21">
         <v>43414</v>
@@ -31098,7 +31098,7 @@
     </row>
     <row r="140" spans="1:4" ht="15.75" customHeight="1">
       <c r="A140" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B140" s="21">
         <v>43415</v>
@@ -31112,7 +31112,7 @@
     </row>
     <row r="141" spans="1:4" ht="15.75" customHeight="1">
       <c r="A141" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B141" s="21">
         <v>43416</v>
@@ -31126,7 +31126,7 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" customHeight="1">
       <c r="A142" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B142" s="21">
         <v>43417</v>
@@ -31140,7 +31140,7 @@
     </row>
     <row r="143" spans="1:4" ht="15.75" customHeight="1">
       <c r="A143" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B143" s="21">
         <v>43418</v>
@@ -31154,7 +31154,7 @@
     </row>
     <row r="144" spans="1:4" ht="15.75" customHeight="1">
       <c r="A144" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B144" s="21">
         <v>43419</v>
@@ -31168,7 +31168,7 @@
     </row>
     <row r="145" spans="1:4" ht="15.75" customHeight="1">
       <c r="A145" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B145" s="21">
         <v>43420</v>
@@ -31182,7 +31182,7 @@
     </row>
     <row r="146" spans="1:4" ht="15.75" customHeight="1">
       <c r="A146" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B146" s="21">
         <v>43421</v>
@@ -31196,7 +31196,7 @@
     </row>
     <row r="147" spans="1:4" ht="15.75" customHeight="1">
       <c r="A147" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B147" s="21">
         <v>43422</v>
@@ -31210,7 +31210,7 @@
     </row>
     <row r="148" spans="1:4" ht="15.75" customHeight="1">
       <c r="A148" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B148" s="21">
         <v>43423</v>
@@ -31224,7 +31224,7 @@
     </row>
     <row r="149" spans="1:4" ht="15.75" customHeight="1">
       <c r="A149" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B149" s="21">
         <v>43424</v>
@@ -31238,7 +31238,7 @@
     </row>
     <row r="150" spans="1:4" ht="15.75" customHeight="1">
       <c r="A150" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B150" s="21">
         <v>43425</v>
@@ -31252,7 +31252,7 @@
     </row>
     <row r="151" spans="1:4" ht="15.75" customHeight="1">
       <c r="A151" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B151" s="21">
         <v>43426</v>
@@ -31266,7 +31266,7 @@
     </row>
     <row r="152" spans="1:4" ht="15.75" customHeight="1">
       <c r="A152" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B152" s="21">
         <v>43427</v>
@@ -31280,7 +31280,7 @@
     </row>
     <row r="153" spans="1:4" ht="15.75" customHeight="1">
       <c r="A153" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B153" s="21">
         <v>43428</v>
@@ -31294,7 +31294,7 @@
     </row>
     <row r="154" spans="1:4" ht="15.75" customHeight="1">
       <c r="A154" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B154" s="21">
         <v>43429</v>
@@ -31308,7 +31308,7 @@
     </row>
     <row r="155" spans="1:4" ht="15.75" customHeight="1">
       <c r="A155" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B155" s="21">
         <v>43430</v>
@@ -31322,7 +31322,7 @@
     </row>
     <row r="156" spans="1:4" ht="15.75" customHeight="1">
       <c r="A156" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B156" s="21">
         <v>43431</v>
@@ -31336,7 +31336,7 @@
     </row>
     <row r="157" spans="1:4" ht="15.75" customHeight="1">
       <c r="A157" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B157" s="21">
         <v>43432</v>
@@ -31350,7 +31350,7 @@
     </row>
     <row r="158" spans="1:4" ht="15.75" customHeight="1">
       <c r="A158" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B158" s="21">
         <v>43433</v>
@@ -31364,7 +31364,7 @@
     </row>
     <row r="159" spans="1:4" ht="15.75" customHeight="1">
       <c r="A159" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B159" s="21">
         <v>43434</v>
@@ -31378,7 +31378,7 @@
     </row>
     <row r="160" spans="1:4" ht="15.75" customHeight="1">
       <c r="A160" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B160" s="21">
         <v>43435</v>
@@ -31392,7 +31392,7 @@
     </row>
     <row r="161" spans="1:4" ht="15.75" customHeight="1">
       <c r="A161" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B161" s="21">
         <v>43436</v>
@@ -31406,7 +31406,7 @@
     </row>
     <row r="162" spans="1:4" ht="15.75" customHeight="1">
       <c r="A162" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B162" s="21">
         <v>43437</v>
@@ -31420,7 +31420,7 @@
     </row>
     <row r="163" spans="1:4" ht="15.75" customHeight="1">
       <c r="A163" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B163" s="21">
         <v>43438</v>
@@ -31434,7 +31434,7 @@
     </row>
     <row r="164" spans="1:4" ht="15.75" customHeight="1">
       <c r="A164" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B164" s="21">
         <v>43439</v>
@@ -31448,7 +31448,7 @@
     </row>
     <row r="165" spans="1:4" ht="15.75" customHeight="1">
       <c r="A165" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B165" s="21">
         <v>43440</v>
@@ -31462,7 +31462,7 @@
     </row>
     <row r="166" spans="1:4" ht="15.75" customHeight="1">
       <c r="A166" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B166" s="21">
         <v>43441</v>
@@ -31476,7 +31476,7 @@
     </row>
     <row r="167" spans="1:4" ht="15.75" customHeight="1">
       <c r="A167" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B167" s="21">
         <v>43442</v>
@@ -31490,7 +31490,7 @@
     </row>
     <row r="168" spans="1:4" ht="15.75" customHeight="1">
       <c r="A168" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B168" s="21">
         <v>43443</v>
@@ -31504,7 +31504,7 @@
     </row>
     <row r="169" spans="1:4" ht="15.75" customHeight="1">
       <c r="A169" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B169" s="21">
         <v>43444</v>
@@ -31518,7 +31518,7 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" customHeight="1">
       <c r="A170" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B170" s="21">
         <v>43445</v>
@@ -31532,7 +31532,7 @@
     </row>
     <row r="171" spans="1:4" ht="15.75" customHeight="1">
       <c r="A171" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B171" s="21">
         <v>43446</v>
@@ -31546,7 +31546,7 @@
     </row>
     <row r="172" spans="1:4" ht="15.75" customHeight="1">
       <c r="A172" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B172" s="21">
         <v>43447</v>
@@ -31560,7 +31560,7 @@
     </row>
     <row r="173" spans="1:4" ht="15.75" customHeight="1">
       <c r="A173" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B173" s="21">
         <v>43448</v>
@@ -31574,7 +31574,7 @@
     </row>
     <row r="174" spans="1:4" ht="15.75" customHeight="1">
       <c r="A174" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B174" s="21">
         <v>43449</v>
@@ -31588,7 +31588,7 @@
     </row>
     <row r="175" spans="1:4" ht="15.75" customHeight="1">
       <c r="A175" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B175" s="21">
         <v>43450</v>
@@ -31602,7 +31602,7 @@
     </row>
     <row r="176" spans="1:4" ht="15.75" customHeight="1">
       <c r="A176" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B176" s="21">
         <v>43451</v>
@@ -31616,7 +31616,7 @@
     </row>
     <row r="177" spans="1:4" ht="15.75" customHeight="1">
       <c r="A177" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B177" s="21">
         <v>43452</v>
@@ -31630,7 +31630,7 @@
     </row>
     <row r="178" spans="1:4" ht="15.75" customHeight="1">
       <c r="A178" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B178" s="21">
         <v>43453</v>
@@ -31644,7 +31644,7 @@
     </row>
     <row r="179" spans="1:4" ht="15.75" customHeight="1">
       <c r="A179" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B179" s="21">
         <v>43454</v>
@@ -31658,7 +31658,7 @@
     </row>
     <row r="180" spans="1:4" ht="15.75" customHeight="1">
       <c r="A180" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B180" s="21">
         <v>43455</v>
@@ -31672,7 +31672,7 @@
     </row>
     <row r="181" spans="1:4" ht="15.75" customHeight="1">
       <c r="A181" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B181" s="21">
         <v>43456</v>
@@ -31686,7 +31686,7 @@
     </row>
     <row r="182" spans="1:4" ht="15.75" customHeight="1">
       <c r="A182" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B182" s="21">
         <v>43457</v>
@@ -31700,7 +31700,7 @@
     </row>
     <row r="183" spans="1:4" ht="15.75" customHeight="1">
       <c r="A183" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B183" s="21">
         <v>43458</v>
@@ -31714,7 +31714,7 @@
     </row>
     <row r="184" spans="1:4" ht="15.75" customHeight="1">
       <c r="A184" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B184" s="21">
         <v>43459</v>
@@ -31728,7 +31728,7 @@
     </row>
     <row r="185" spans="1:4" ht="15.75" customHeight="1">
       <c r="A185" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B185" s="21">
         <v>43460</v>
@@ -31742,7 +31742,7 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" customHeight="1">
       <c r="A186" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B186" s="21">
         <v>43461</v>
@@ -31756,7 +31756,7 @@
     </row>
     <row r="187" spans="1:4" ht="15.75" customHeight="1">
       <c r="A187" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B187" s="21">
         <v>43462</v>
@@ -31770,7 +31770,7 @@
     </row>
     <row r="188" spans="1:4" ht="15.75" customHeight="1">
       <c r="A188" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B188" s="21">
         <v>43463</v>
@@ -31784,7 +31784,7 @@
     </row>
     <row r="189" spans="1:4" ht="15.75" customHeight="1">
       <c r="A189" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B189" s="21">
         <v>43464</v>
@@ -31798,7 +31798,7 @@
     </row>
     <row r="190" spans="1:4" ht="15.75" customHeight="1">
       <c r="A190" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B190" s="21">
         <v>43465</v>
@@ -31812,7 +31812,7 @@
     </row>
     <row r="191" spans="1:4" ht="15.75" customHeight="1">
       <c r="A191" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B191" s="21">
         <v>43374</v>
@@ -31826,7 +31826,7 @@
     </row>
     <row r="192" spans="1:4" ht="15.75" customHeight="1">
       <c r="A192" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B192" s="21">
         <v>43375</v>
@@ -31840,7 +31840,7 @@
     </row>
     <row r="193" spans="1:4" ht="15.75" customHeight="1">
       <c r="A193" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B193" s="21">
         <v>43376</v>
@@ -31854,7 +31854,7 @@
     </row>
     <row r="194" spans="1:4" ht="15.75" customHeight="1">
       <c r="A194" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B194" s="21">
         <v>43377</v>
@@ -31868,7 +31868,7 @@
     </row>
     <row r="195" spans="1:4" ht="15.75" customHeight="1">
       <c r="A195" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B195" s="21">
         <v>43378</v>
@@ -31882,7 +31882,7 @@
     </row>
     <row r="196" spans="1:4" ht="15.75" customHeight="1">
       <c r="A196" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B196" s="21">
         <v>43379</v>
@@ -31896,7 +31896,7 @@
     </row>
     <row r="197" spans="1:4" ht="15.75" customHeight="1">
       <c r="A197" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B197" s="21">
         <v>43380</v>
@@ -31910,7 +31910,7 @@
     </row>
     <row r="198" spans="1:4" ht="15.75" customHeight="1">
       <c r="A198" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B198" s="21">
         <v>43381</v>
@@ -31924,7 +31924,7 @@
     </row>
     <row r="199" spans="1:4" ht="15.75" customHeight="1">
       <c r="A199" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B199" s="21">
         <v>43382</v>
@@ -31938,7 +31938,7 @@
     </row>
     <row r="200" spans="1:4" ht="15.75" customHeight="1">
       <c r="A200" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B200" s="21">
         <v>43383</v>
@@ -31952,7 +31952,7 @@
     </row>
     <row r="201" spans="1:4" ht="15.75" customHeight="1">
       <c r="A201" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B201" s="21">
         <v>43384</v>
@@ -31966,7 +31966,7 @@
     </row>
     <row r="202" spans="1:4" ht="15.75" customHeight="1">
       <c r="A202" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B202" s="21">
         <v>43385</v>
@@ -31980,7 +31980,7 @@
     </row>
     <row r="203" spans="1:4" ht="15.75" customHeight="1">
       <c r="A203" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B203" s="21">
         <v>43386</v>
@@ -31994,7 +31994,7 @@
     </row>
     <row r="204" spans="1:4" ht="15.75" customHeight="1">
       <c r="A204" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B204" s="21">
         <v>43387</v>
@@ -32008,7 +32008,7 @@
     </row>
     <row r="205" spans="1:4" ht="15.75" customHeight="1">
       <c r="A205" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B205" s="21">
         <v>43388</v>
@@ -32022,7 +32022,7 @@
     </row>
     <row r="206" spans="1:4" ht="15.75" customHeight="1">
       <c r="A206" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B206" s="21">
         <v>43389</v>
@@ -32036,7 +32036,7 @@
     </row>
     <row r="207" spans="1:4" ht="15.75" customHeight="1">
       <c r="A207" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B207" s="21">
         <v>43390</v>
@@ -32050,7 +32050,7 @@
     </row>
     <row r="208" spans="1:4" ht="15.75" customHeight="1">
       <c r="A208" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B208" s="21">
         <v>43391</v>
@@ -32064,7 +32064,7 @@
     </row>
     <row r="209" spans="1:4" ht="15.75" customHeight="1">
       <c r="A209" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B209" s="21">
         <v>43392</v>
@@ -32078,7 +32078,7 @@
     </row>
     <row r="210" spans="1:4" ht="15.75" customHeight="1">
       <c r="A210" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B210" s="21">
         <v>43393</v>
@@ -32092,7 +32092,7 @@
     </row>
     <row r="211" spans="1:4" ht="15.75" customHeight="1">
       <c r="A211" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B211" s="21">
         <v>43394</v>
@@ -32106,7 +32106,7 @@
     </row>
     <row r="212" spans="1:4" ht="15.75" customHeight="1">
       <c r="A212" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B212" s="21">
         <v>43395</v>
@@ -32120,7 +32120,7 @@
     </row>
     <row r="213" spans="1:4" ht="15.75" customHeight="1">
       <c r="A213" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B213" s="21">
         <v>43396</v>
@@ -32134,7 +32134,7 @@
     </row>
     <row r="214" spans="1:4" ht="15.75" customHeight="1">
       <c r="A214" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B214" s="21">
         <v>43397</v>
@@ -32148,7 +32148,7 @@
     </row>
     <row r="215" spans="1:4" ht="15.75" customHeight="1">
       <c r="A215" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B215" s="21">
         <v>43398</v>
@@ -32162,7 +32162,7 @@
     </row>
     <row r="216" spans="1:4" ht="15.75" customHeight="1">
       <c r="A216" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B216" s="21">
         <v>43399</v>
@@ -32176,7 +32176,7 @@
     </row>
     <row r="217" spans="1:4" ht="15.75" customHeight="1">
       <c r="A217" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B217" s="21">
         <v>43400</v>
@@ -32190,7 +32190,7 @@
     </row>
     <row r="218" spans="1:4" ht="15.75" customHeight="1">
       <c r="A218" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B218" s="21">
         <v>43401</v>
@@ -32204,7 +32204,7 @@
     </row>
     <row r="219" spans="1:4" ht="15.75" customHeight="1">
       <c r="A219" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B219" s="21">
         <v>43402</v>
@@ -32218,7 +32218,7 @@
     </row>
     <row r="220" spans="1:4" ht="15.75" customHeight="1">
       <c r="A220" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B220" s="21">
         <v>43403</v>
@@ -32232,7 +32232,7 @@
     </row>
     <row r="221" spans="1:4" ht="15.75" customHeight="1">
       <c r="A221" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B221" s="21">
         <v>43404</v>
@@ -32246,7 +32246,7 @@
     </row>
     <row r="222" spans="1:4" ht="15.75" customHeight="1">
       <c r="A222" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B222" s="21">
         <v>43405</v>
@@ -32260,7 +32260,7 @@
     </row>
     <row r="223" spans="1:4" ht="15.75" customHeight="1">
       <c r="A223" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B223" s="21">
         <v>43406</v>
@@ -32274,7 +32274,7 @@
     </row>
     <row r="224" spans="1:4" ht="15.75" customHeight="1">
       <c r="A224" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B224" s="21">
         <v>43407</v>
@@ -32288,7 +32288,7 @@
     </row>
     <row r="225" spans="1:4" ht="15.75" customHeight="1">
       <c r="A225" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B225" s="21">
         <v>43408</v>
@@ -32302,7 +32302,7 @@
     </row>
     <row r="226" spans="1:4" ht="15.75" customHeight="1">
       <c r="A226" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B226" s="21">
         <v>43409</v>
@@ -32316,7 +32316,7 @@
     </row>
     <row r="227" spans="1:4" ht="15.75" customHeight="1">
       <c r="A227" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B227" s="21">
         <v>43410</v>
@@ -32330,7 +32330,7 @@
     </row>
     <row r="228" spans="1:4" ht="15.75" customHeight="1">
       <c r="A228" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B228" s="21">
         <v>43411</v>
@@ -32344,7 +32344,7 @@
     </row>
     <row r="229" spans="1:4" ht="15.75" customHeight="1">
       <c r="A229" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B229" s="21">
         <v>43412</v>
@@ -32358,7 +32358,7 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" customHeight="1">
       <c r="A230" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B230" s="21">
         <v>43413</v>
@@ -32372,7 +32372,7 @@
     </row>
     <row r="231" spans="1:4" ht="15.75" customHeight="1">
       <c r="A231" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B231" s="21">
         <v>43414</v>
@@ -32386,7 +32386,7 @@
     </row>
     <row r="232" spans="1:4" ht="15.75" customHeight="1">
       <c r="A232" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B232" s="21">
         <v>43415</v>
@@ -32400,7 +32400,7 @@
     </row>
     <row r="233" spans="1:4" ht="15.75" customHeight="1">
       <c r="A233" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B233" s="21">
         <v>43416</v>
@@ -32414,7 +32414,7 @@
     </row>
     <row r="234" spans="1:4" ht="15.75" customHeight="1">
       <c r="A234" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B234" s="21">
         <v>43417</v>
@@ -32428,7 +32428,7 @@
     </row>
     <row r="235" spans="1:4" ht="15.75" customHeight="1">
       <c r="A235" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B235" s="21">
         <v>43418</v>
@@ -32442,7 +32442,7 @@
     </row>
     <row r="236" spans="1:4" ht="15.75" customHeight="1">
       <c r="A236" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B236" s="21">
         <v>43419</v>
@@ -32456,7 +32456,7 @@
     </row>
     <row r="237" spans="1:4" ht="15.75" customHeight="1">
       <c r="A237" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B237" s="21">
         <v>43420</v>
@@ -32470,7 +32470,7 @@
     </row>
     <row r="238" spans="1:4" ht="15.75" customHeight="1">
       <c r="A238" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B238" s="21">
         <v>43421</v>
@@ -32484,7 +32484,7 @@
     </row>
     <row r="239" spans="1:4" ht="15.75" customHeight="1">
       <c r="A239" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B239" s="21">
         <v>43422</v>
@@ -32498,7 +32498,7 @@
     </row>
     <row r="240" spans="1:4" ht="15.75" customHeight="1">
       <c r="A240" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B240" s="21">
         <v>43423</v>
@@ -32512,7 +32512,7 @@
     </row>
     <row r="241" spans="1:4" ht="15.75" customHeight="1">
       <c r="A241" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B241" s="21">
         <v>43424</v>
@@ -32526,7 +32526,7 @@
     </row>
     <row r="242" spans="1:4" ht="15.75" customHeight="1">
       <c r="A242" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B242" s="21">
         <v>43425</v>
@@ -32540,7 +32540,7 @@
     </row>
     <row r="243" spans="1:4" ht="15.75" customHeight="1">
       <c r="A243" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B243" s="21">
         <v>43426</v>
@@ -32554,7 +32554,7 @@
     </row>
     <row r="244" spans="1:4" ht="15.75" customHeight="1">
       <c r="A244" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B244" s="21">
         <v>43427</v>
@@ -32568,7 +32568,7 @@
     </row>
     <row r="245" spans="1:4" ht="15.75" customHeight="1">
       <c r="A245" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B245" s="21">
         <v>43428</v>
@@ -32582,7 +32582,7 @@
     </row>
     <row r="246" spans="1:4" ht="15.75" customHeight="1">
       <c r="A246" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B246" s="21">
         <v>43429</v>
@@ -32596,7 +32596,7 @@
     </row>
     <row r="247" spans="1:4" ht="15.75" customHeight="1">
       <c r="A247" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B247" s="21">
         <v>43430</v>
@@ -32610,7 +32610,7 @@
     </row>
     <row r="248" spans="1:4" ht="15.75" customHeight="1">
       <c r="A248" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B248" s="21">
         <v>43431</v>
@@ -32624,7 +32624,7 @@
     </row>
     <row r="249" spans="1:4" ht="15.75" customHeight="1">
       <c r="A249" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B249" s="21">
         <v>43432</v>
@@ -32638,7 +32638,7 @@
     </row>
     <row r="250" spans="1:4" ht="15.75" customHeight="1">
       <c r="A250" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B250" s="21">
         <v>43433</v>
@@ -32652,7 +32652,7 @@
     </row>
     <row r="251" spans="1:4" ht="15.75" customHeight="1">
       <c r="A251" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B251" s="21">
         <v>43434</v>
@@ -32666,7 +32666,7 @@
     </row>
     <row r="252" spans="1:4" ht="15.75" customHeight="1">
       <c r="A252" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B252" s="21">
         <v>43435</v>
@@ -32680,7 +32680,7 @@
     </row>
     <row r="253" spans="1:4" ht="15.75" customHeight="1">
       <c r="A253" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B253" s="21">
         <v>43436</v>
@@ -32694,7 +32694,7 @@
     </row>
     <row r="254" spans="1:4" ht="15.75" customHeight="1">
       <c r="A254" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B254" s="21">
         <v>43437</v>
@@ -32708,7 +32708,7 @@
     </row>
     <row r="255" spans="1:4" ht="15.75" customHeight="1">
       <c r="A255" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B255" s="21">
         <v>43438</v>
@@ -32722,7 +32722,7 @@
     </row>
     <row r="256" spans="1:4" ht="15.75" customHeight="1">
       <c r="A256" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B256" s="21">
         <v>43439</v>
@@ -32736,7 +32736,7 @@
     </row>
     <row r="257" spans="1:4" ht="15.75" customHeight="1">
       <c r="A257" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B257" s="21">
         <v>43440</v>
@@ -32750,7 +32750,7 @@
     </row>
     <row r="258" spans="1:4" ht="15.75" customHeight="1">
       <c r="A258" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B258" s="21">
         <v>43441</v>
@@ -32764,7 +32764,7 @@
     </row>
     <row r="259" spans="1:4" ht="15.75" customHeight="1">
       <c r="A259" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B259" s="21">
         <v>43442</v>
@@ -32778,7 +32778,7 @@
     </row>
     <row r="260" spans="1:4" ht="15.75" customHeight="1">
       <c r="A260" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B260" s="21">
         <v>43443</v>
@@ -32792,7 +32792,7 @@
     </row>
     <row r="261" spans="1:4" ht="15.75" customHeight="1">
       <c r="A261" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B261" s="21">
         <v>43444</v>
@@ -32806,7 +32806,7 @@
     </row>
     <row r="262" spans="1:4" ht="15.75" customHeight="1">
       <c r="A262" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B262" s="21">
         <v>43445</v>
@@ -32820,7 +32820,7 @@
     </row>
     <row r="263" spans="1:4" ht="15.75" customHeight="1">
       <c r="A263" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B263" s="21">
         <v>43446</v>
@@ -32834,7 +32834,7 @@
     </row>
     <row r="264" spans="1:4" ht="15.75" customHeight="1">
       <c r="A264" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B264" s="21">
         <v>43447</v>
@@ -32848,7 +32848,7 @@
     </row>
     <row r="265" spans="1:4" ht="15.75" customHeight="1">
       <c r="A265" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B265" s="21">
         <v>43448</v>
@@ -32862,7 +32862,7 @@
     </row>
     <row r="266" spans="1:4" ht="15.75" customHeight="1">
       <c r="A266" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B266" s="21">
         <v>43449</v>
@@ -32876,7 +32876,7 @@
     </row>
     <row r="267" spans="1:4" ht="15.75" customHeight="1">
       <c r="A267" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B267" s="21">
         <v>43450</v>
@@ -32890,7 +32890,7 @@
     </row>
     <row r="268" spans="1:4" ht="15.75" customHeight="1">
       <c r="A268" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B268" s="21">
         <v>43451</v>
@@ -32904,7 +32904,7 @@
     </row>
     <row r="269" spans="1:4" ht="15.75" customHeight="1">
       <c r="A269" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B269" s="21">
         <v>43452</v>
@@ -32918,7 +32918,7 @@
     </row>
     <row r="270" spans="1:4" ht="15.75" customHeight="1">
       <c r="A270" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B270" s="21">
         <v>43453</v>
@@ -32932,7 +32932,7 @@
     </row>
     <row r="271" spans="1:4" ht="15.75" customHeight="1">
       <c r="A271" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B271" s="21">
         <v>43454</v>
@@ -32946,7 +32946,7 @@
     </row>
     <row r="272" spans="1:4" ht="15.75" customHeight="1">
       <c r="A272" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B272" s="21">
         <v>43455</v>
@@ -32960,7 +32960,7 @@
     </row>
     <row r="273" spans="1:4" ht="15.75" customHeight="1">
       <c r="A273" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B273" s="21">
         <v>43456</v>
@@ -32974,7 +32974,7 @@
     </row>
     <row r="274" spans="1:4" ht="15.75" customHeight="1">
       <c r="A274" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B274" s="21">
         <v>43457</v>
@@ -32988,7 +32988,7 @@
     </row>
     <row r="275" spans="1:4" ht="15.75" customHeight="1">
       <c r="A275" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B275" s="21">
         <v>43458</v>
@@ -33002,7 +33002,7 @@
     </row>
     <row r="276" spans="1:4" ht="15.75" customHeight="1">
       <c r="A276" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B276" s="21">
         <v>43459</v>
@@ -33016,7 +33016,7 @@
     </row>
     <row r="277" spans="1:4" ht="15.75" customHeight="1">
       <c r="A277" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B277" s="21">
         <v>43460</v>
@@ -33030,7 +33030,7 @@
     </row>
     <row r="278" spans="1:4" ht="15.75" customHeight="1">
       <c r="A278" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B278" s="21">
         <v>43461</v>
@@ -33044,7 +33044,7 @@
     </row>
     <row r="279" spans="1:4" ht="15.75" customHeight="1">
       <c r="A279" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B279" s="21">
         <v>43462</v>
@@ -33058,7 +33058,7 @@
     </row>
     <row r="280" spans="1:4" ht="15.75" customHeight="1">
       <c r="A280" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B280" s="21">
         <v>43463</v>
@@ -33072,7 +33072,7 @@
     </row>
     <row r="281" spans="1:4" ht="15.75" customHeight="1">
       <c r="A281" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B281" s="21">
         <v>43464</v>
@@ -33086,7 +33086,7 @@
     </row>
     <row r="282" spans="1:4" ht="15.75" customHeight="1">
       <c r="A282" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B282" s="21">
         <v>43465</v>
@@ -33100,7 +33100,7 @@
     </row>
     <row r="283" spans="1:4" ht="15.75" customHeight="1">
       <c r="A283" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B283" s="21">
         <v>43376</v>
@@ -33114,7 +33114,7 @@
     </row>
     <row r="284" spans="1:4" ht="15.75" customHeight="1">
       <c r="A284" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B284" s="21">
         <v>43377</v>
@@ -33128,7 +33128,7 @@
     </row>
     <row r="285" spans="1:4" ht="15.75" customHeight="1">
       <c r="A285" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B285" s="21">
         <v>43378</v>
@@ -33142,7 +33142,7 @@
     </row>
     <row r="286" spans="1:4" ht="15.75" customHeight="1">
       <c r="A286" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B286" s="21">
         <v>43379</v>
@@ -33156,7 +33156,7 @@
     </row>
     <row r="287" spans="1:4" ht="15.75" customHeight="1">
       <c r="A287" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B287" s="21">
         <v>43380</v>
@@ -33170,7 +33170,7 @@
     </row>
     <row r="288" spans="1:4" ht="15.75" customHeight="1">
       <c r="A288" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B288" s="21">
         <v>43381</v>
@@ -33184,7 +33184,7 @@
     </row>
     <row r="289" spans="1:4" ht="15.75" customHeight="1">
       <c r="A289" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B289" s="21">
         <v>43382</v>
@@ -33198,7 +33198,7 @@
     </row>
     <row r="290" spans="1:4" ht="15.75" customHeight="1">
       <c r="A290" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B290" s="21">
         <v>43383</v>
@@ -33212,7 +33212,7 @@
     </row>
     <row r="291" spans="1:4" ht="15.75" customHeight="1">
       <c r="A291" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B291" s="21">
         <v>43384</v>
@@ -33226,7 +33226,7 @@
     </row>
     <row r="292" spans="1:4" ht="15.75" customHeight="1">
       <c r="A292" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B292" s="21">
         <v>43385</v>
@@ -33240,7 +33240,7 @@
     </row>
     <row r="293" spans="1:4" ht="15.75" customHeight="1">
       <c r="A293" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B293" s="21">
         <v>43386</v>
@@ -33254,7 +33254,7 @@
     </row>
     <row r="294" spans="1:4" ht="15.75" customHeight="1">
       <c r="A294" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B294" s="21">
         <v>43387</v>
@@ -33268,7 +33268,7 @@
     </row>
     <row r="295" spans="1:4" ht="15.75" customHeight="1">
       <c r="A295" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B295" s="21">
         <v>43388</v>
@@ -33282,7 +33282,7 @@
     </row>
     <row r="296" spans="1:4" ht="15.75" customHeight="1">
       <c r="A296" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B296" s="21">
         <v>43389</v>
@@ -33296,7 +33296,7 @@
     </row>
     <row r="297" spans="1:4" ht="15.75" customHeight="1">
       <c r="A297" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B297" s="21">
         <v>43390</v>
@@ -33310,7 +33310,7 @@
     </row>
     <row r="298" spans="1:4" ht="15.75" customHeight="1">
       <c r="A298" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B298" s="21">
         <v>43391</v>
@@ -33324,7 +33324,7 @@
     </row>
     <row r="299" spans="1:4" ht="15.75" customHeight="1">
       <c r="A299" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B299" s="21">
         <v>43392</v>
@@ -33338,7 +33338,7 @@
     </row>
     <row r="300" spans="1:4" ht="15.75" customHeight="1">
       <c r="A300" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B300" s="21">
         <v>43393</v>
@@ -33352,7 +33352,7 @@
     </row>
     <row r="301" spans="1:4" ht="15.75" customHeight="1">
       <c r="A301" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B301" s="21">
         <v>43394</v>
@@ -33366,7 +33366,7 @@
     </row>
     <row r="302" spans="1:4" ht="15.75" customHeight="1">
       <c r="A302" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B302" s="21">
         <v>43395</v>
@@ -33380,7 +33380,7 @@
     </row>
     <row r="303" spans="1:4" ht="15.75" customHeight="1">
       <c r="A303" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B303" s="21">
         <v>43396</v>
@@ -33394,7 +33394,7 @@
     </row>
     <row r="304" spans="1:4" ht="15.75" customHeight="1">
       <c r="A304" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B304" s="21">
         <v>43397</v>
@@ -33408,7 +33408,7 @@
     </row>
     <row r="305" spans="1:4" ht="15.75" customHeight="1">
       <c r="A305" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B305" s="21">
         <v>43398</v>
@@ -33422,7 +33422,7 @@
     </row>
     <row r="306" spans="1:4" ht="15.75" customHeight="1">
       <c r="A306" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B306" s="21">
         <v>43399</v>
@@ -33436,7 +33436,7 @@
     </row>
     <row r="307" spans="1:4" ht="15.75" customHeight="1">
       <c r="A307" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B307" s="21">
         <v>43400</v>
@@ -33450,7 +33450,7 @@
     </row>
     <row r="308" spans="1:4" ht="15.75" customHeight="1">
       <c r="A308" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B308" s="21">
         <v>43401</v>
@@ -33464,7 +33464,7 @@
     </row>
     <row r="309" spans="1:4" ht="15.75" customHeight="1">
       <c r="A309" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B309" s="21">
         <v>43402</v>
@@ -33478,7 +33478,7 @@
     </row>
     <row r="310" spans="1:4" ht="15.75" customHeight="1">
       <c r="A310" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B310" s="21">
         <v>43403</v>
@@ -33492,7 +33492,7 @@
     </row>
     <row r="311" spans="1:4" ht="15.75" customHeight="1">
       <c r="A311" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B311" s="21">
         <v>43404</v>
@@ -33506,7 +33506,7 @@
     </row>
     <row r="312" spans="1:4" ht="15.75" customHeight="1">
       <c r="A312" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B312" s="21">
         <v>43405</v>
@@ -33520,7 +33520,7 @@
     </row>
     <row r="313" spans="1:4" ht="15.75" customHeight="1">
       <c r="A313" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B313" s="21">
         <v>43406</v>
@@ -33534,7 +33534,7 @@
     </row>
     <row r="314" spans="1:4" ht="15.75" customHeight="1">
       <c r="A314" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B314" s="21">
         <v>43407</v>
@@ -33548,7 +33548,7 @@
     </row>
     <row r="315" spans="1:4" ht="15.75" customHeight="1">
       <c r="A315" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B315" s="21">
         <v>43408</v>
@@ -33562,7 +33562,7 @@
     </row>
     <row r="316" spans="1:4" ht="15.75" customHeight="1">
       <c r="A316" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B316" s="21">
         <v>43409</v>
@@ -33576,7 +33576,7 @@
     </row>
     <row r="317" spans="1:4" ht="15.75" customHeight="1">
       <c r="A317" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B317" s="21">
         <v>43410</v>
@@ -33590,7 +33590,7 @@
     </row>
     <row r="318" spans="1:4" ht="15.75" customHeight="1">
       <c r="A318" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B318" s="21">
         <v>43411</v>
@@ -33604,7 +33604,7 @@
     </row>
     <row r="319" spans="1:4" ht="15.75" customHeight="1">
       <c r="A319" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B319" s="21">
         <v>43412</v>
@@ -33618,7 +33618,7 @@
     </row>
     <row r="320" spans="1:4" ht="15.75" customHeight="1">
       <c r="A320" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B320" s="21">
         <v>43413</v>
@@ -33632,7 +33632,7 @@
     </row>
     <row r="321" spans="1:4" ht="15.75" customHeight="1">
       <c r="A321" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B321" s="21">
         <v>43414</v>
@@ -33646,7 +33646,7 @@
     </row>
     <row r="322" spans="1:4" ht="15.75" customHeight="1">
       <c r="A322" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B322" s="21">
         <v>43415</v>
@@ -33660,7 +33660,7 @@
     </row>
     <row r="323" spans="1:4" ht="15.75" customHeight="1">
       <c r="A323" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B323" s="21">
         <v>43416</v>
@@ -33674,7 +33674,7 @@
     </row>
     <row r="324" spans="1:4" ht="15.75" customHeight="1">
       <c r="A324" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B324" s="21">
         <v>43417</v>
@@ -33688,7 +33688,7 @@
     </row>
     <row r="325" spans="1:4" ht="15.75" customHeight="1">
       <c r="A325" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B325" s="21">
         <v>43418</v>
@@ -33702,7 +33702,7 @@
     </row>
     <row r="326" spans="1:4" ht="15.75" customHeight="1">
       <c r="A326" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B326" s="21">
         <v>43419</v>
@@ -33716,7 +33716,7 @@
     </row>
     <row r="327" spans="1:4" ht="15.75" customHeight="1">
       <c r="A327" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B327" s="21">
         <v>43420</v>
@@ -33730,7 +33730,7 @@
     </row>
     <row r="328" spans="1:4" ht="15.75" customHeight="1">
       <c r="A328" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B328" s="21">
         <v>43421</v>
@@ -33744,7 +33744,7 @@
     </row>
     <row r="329" spans="1:4" ht="15.75" customHeight="1">
       <c r="A329" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B329" s="21">
         <v>43422</v>
@@ -33758,7 +33758,7 @@
     </row>
     <row r="330" spans="1:4" ht="15.75" customHeight="1">
       <c r="A330" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B330" s="21">
         <v>43423</v>
@@ -33772,7 +33772,7 @@
     </row>
     <row r="331" spans="1:4" ht="15.75" customHeight="1">
       <c r="A331" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B331" s="21">
         <v>43424</v>
@@ -33786,7 +33786,7 @@
     </row>
     <row r="332" spans="1:4" ht="15.75" customHeight="1">
       <c r="A332" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B332" s="21">
         <v>43425</v>
@@ -33800,7 +33800,7 @@
     </row>
     <row r="333" spans="1:4" ht="15.75" customHeight="1">
       <c r="A333" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B333" s="21">
         <v>43426</v>
@@ -33814,7 +33814,7 @@
     </row>
     <row r="334" spans="1:4" ht="15.75" customHeight="1">
       <c r="A334" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B334" s="21">
         <v>43427</v>
@@ -33828,7 +33828,7 @@
     </row>
     <row r="335" spans="1:4" ht="15.75" customHeight="1">
       <c r="A335" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B335" s="21">
         <v>43428</v>
@@ -33842,7 +33842,7 @@
     </row>
     <row r="336" spans="1:4" ht="15.75" customHeight="1">
       <c r="A336" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B336" s="21">
         <v>43429</v>
@@ -33856,7 +33856,7 @@
     </row>
     <row r="337" spans="1:4" ht="15.75" customHeight="1">
       <c r="A337" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B337" s="21">
         <v>43430</v>
@@ -33870,7 +33870,7 @@
     </row>
     <row r="338" spans="1:4" ht="15.75" customHeight="1">
       <c r="A338" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B338" s="21">
         <v>43431</v>
@@ -33884,7 +33884,7 @@
     </row>
     <row r="339" spans="1:4" ht="15.75" customHeight="1">
       <c r="A339" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B339" s="21">
         <v>43432</v>
@@ -33898,7 +33898,7 @@
     </row>
     <row r="340" spans="1:4" ht="15.75" customHeight="1">
       <c r="A340" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B340" s="21">
         <v>43433</v>
@@ -33912,7 +33912,7 @@
     </row>
     <row r="341" spans="1:4" ht="15.75" customHeight="1">
       <c r="A341" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B341" s="21">
         <v>43434</v>
@@ -33926,7 +33926,7 @@
     </row>
     <row r="342" spans="1:4" ht="15.75" customHeight="1">
       <c r="A342" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B342" s="21">
         <v>43435</v>
@@ -33940,7 +33940,7 @@
     </row>
     <row r="343" spans="1:4" ht="15.75" customHeight="1">
       <c r="A343" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B343" s="21">
         <v>43436</v>
@@ -33954,7 +33954,7 @@
     </row>
     <row r="344" spans="1:4" ht="15.75" customHeight="1">
       <c r="A344" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B344" s="21">
         <v>43437</v>
@@ -33968,7 +33968,7 @@
     </row>
     <row r="345" spans="1:4" ht="15.75" customHeight="1">
       <c r="A345" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B345" s="21">
         <v>43438</v>
@@ -33982,7 +33982,7 @@
     </row>
     <row r="346" spans="1:4" ht="15.75" customHeight="1">
       <c r="A346" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B346" s="21">
         <v>43439</v>
@@ -33996,7 +33996,7 @@
     </row>
     <row r="347" spans="1:4" ht="15.75" customHeight="1">
       <c r="A347" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B347" s="21">
         <v>43440</v>
@@ -34010,7 +34010,7 @@
     </row>
     <row r="348" spans="1:4" ht="15.75" customHeight="1">
       <c r="A348" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B348" s="21">
         <v>43441</v>
@@ -34024,7 +34024,7 @@
     </row>
     <row r="349" spans="1:4" ht="15.75" customHeight="1">
       <c r="A349" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B349" s="21">
         <v>43442</v>
@@ -34038,7 +34038,7 @@
     </row>
     <row r="350" spans="1:4" ht="15.75" customHeight="1">
       <c r="A350" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B350" s="21">
         <v>43443</v>
@@ -34052,7 +34052,7 @@
     </row>
     <row r="351" spans="1:4" ht="15.75" customHeight="1">
       <c r="A351" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B351" s="21">
         <v>43444</v>
@@ -34066,7 +34066,7 @@
     </row>
     <row r="352" spans="1:4" ht="15.75" customHeight="1">
       <c r="A352" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B352" s="21">
         <v>43445</v>
@@ -34080,7 +34080,7 @@
     </row>
     <row r="353" spans="1:4" ht="15.75" customHeight="1">
       <c r="A353" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B353" s="21">
         <v>43446</v>
@@ -34094,7 +34094,7 @@
     </row>
     <row r="354" spans="1:4" ht="15.75" customHeight="1">
       <c r="A354" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B354" s="21">
         <v>43447</v>
@@ -34108,7 +34108,7 @@
     </row>
     <row r="355" spans="1:4" ht="15.75" customHeight="1">
       <c r="A355" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B355" s="21">
         <v>43448</v>
@@ -34122,7 +34122,7 @@
     </row>
     <row r="356" spans="1:4" ht="15.75" customHeight="1">
       <c r="A356" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B356" s="21">
         <v>43449</v>
@@ -34136,7 +34136,7 @@
     </row>
     <row r="357" spans="1:4" ht="15.75" customHeight="1">
       <c r="A357" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B357" s="21">
         <v>43450</v>
@@ -34150,7 +34150,7 @@
     </row>
     <row r="358" spans="1:4" ht="15.75" customHeight="1">
       <c r="A358" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B358" s="21">
         <v>43451</v>
@@ -34164,7 +34164,7 @@
     </row>
     <row r="359" spans="1:4" ht="15.75" customHeight="1">
       <c r="A359" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B359" s="21">
         <v>43452</v>
@@ -34178,7 +34178,7 @@
     </row>
     <row r="360" spans="1:4" ht="15.75" customHeight="1">
       <c r="A360" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B360" s="21">
         <v>43453</v>
@@ -34192,7 +34192,7 @@
     </row>
     <row r="361" spans="1:4" ht="15.75" customHeight="1">
       <c r="A361" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B361" s="21">
         <v>43454</v>
@@ -34206,7 +34206,7 @@
     </row>
     <row r="362" spans="1:4" ht="15.75" customHeight="1">
       <c r="A362" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B362" s="21">
         <v>43455</v>
@@ -34220,7 +34220,7 @@
     </row>
     <row r="363" spans="1:4" ht="15.75" customHeight="1">
       <c r="A363" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B363" s="21">
         <v>43456</v>
@@ -34234,7 +34234,7 @@
     </row>
     <row r="364" spans="1:4" ht="15.75" customHeight="1">
       <c r="A364" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B364" s="21">
         <v>43457</v>
@@ -34248,7 +34248,7 @@
     </row>
     <row r="365" spans="1:4" ht="15.75" customHeight="1">
       <c r="A365" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B365" s="21">
         <v>43458</v>
@@ -34262,7 +34262,7 @@
     </row>
     <row r="366" spans="1:4" ht="15.75" customHeight="1">
       <c r="A366" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B366" s="21">
         <v>43459</v>
@@ -34276,7 +34276,7 @@
     </row>
     <row r="367" spans="1:4" ht="15.75" customHeight="1">
       <c r="A367" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B367" s="21">
         <v>43460</v>
@@ -34290,7 +34290,7 @@
     </row>
     <row r="368" spans="1:4" ht="15.75" customHeight="1">
       <c r="A368" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B368" s="21">
         <v>43461</v>
@@ -34304,7 +34304,7 @@
     </row>
     <row r="369" spans="1:4" ht="15.75" customHeight="1">
       <c r="A369" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B369" s="21">
         <v>43462</v>
@@ -34318,7 +34318,7 @@
     </row>
     <row r="370" spans="1:4" ht="15.75" customHeight="1">
       <c r="A370" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B370" s="21">
         <v>43463</v>
@@ -34332,7 +34332,7 @@
     </row>
     <row r="371" spans="1:4" ht="15.75" customHeight="1">
       <c r="A371" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B371" s="21">
         <v>43464</v>
@@ -34346,7 +34346,7 @@
     </row>
     <row r="372" spans="1:4" ht="15.75" customHeight="1">
       <c r="A372" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B372" s="21">
         <v>43465</v>
@@ -34360,7 +34360,7 @@
     </row>
     <row r="373" spans="1:4" ht="15.75" customHeight="1">
       <c r="A373" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B373" s="21">
         <v>43396</v>
@@ -34374,7 +34374,7 @@
     </row>
     <row r="374" spans="1:4" ht="15.75" customHeight="1">
       <c r="A374" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B374" s="21">
         <v>43397</v>
@@ -34388,7 +34388,7 @@
     </row>
     <row r="375" spans="1:4" ht="15.75" customHeight="1">
       <c r="A375" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B375" s="21">
         <v>43398</v>
@@ -34402,7 +34402,7 @@
     </row>
     <row r="376" spans="1:4" ht="15.75" customHeight="1">
       <c r="A376" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B376" s="21">
         <v>43399</v>
@@ -34416,7 +34416,7 @@
     </row>
     <row r="377" spans="1:4" ht="15.75" customHeight="1">
       <c r="A377" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B377" s="21">
         <v>43400</v>
@@ -34430,7 +34430,7 @@
     </row>
     <row r="378" spans="1:4" ht="15.75" customHeight="1">
       <c r="A378" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B378" s="21">
         <v>43401</v>
@@ -34444,7 +34444,7 @@
     </row>
     <row r="379" spans="1:4" ht="15.75" customHeight="1">
       <c r="A379" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B379" s="21">
         <v>43402</v>
@@ -34458,7 +34458,7 @@
     </row>
     <row r="380" spans="1:4" ht="15.75" customHeight="1">
       <c r="A380" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B380" s="21">
         <v>43403</v>
@@ -34472,7 +34472,7 @@
     </row>
     <row r="381" spans="1:4" ht="15.75" customHeight="1">
       <c r="A381" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B381" s="21">
         <v>43404</v>
@@ -34486,7 +34486,7 @@
     </row>
     <row r="382" spans="1:4" ht="15.75" customHeight="1">
       <c r="A382" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B382" s="21">
         <v>43405</v>
@@ -34500,7 +34500,7 @@
     </row>
     <row r="383" spans="1:4" ht="15.75" customHeight="1">
       <c r="A383" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B383" s="21">
         <v>43406</v>
@@ -34514,7 +34514,7 @@
     </row>
     <row r="384" spans="1:4" ht="15.75" customHeight="1">
       <c r="A384" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B384" s="21">
         <v>43407</v>
@@ -34528,7 +34528,7 @@
     </row>
     <row r="385" spans="1:4" ht="15.75" customHeight="1">
       <c r="A385" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B385" s="21">
         <v>43408</v>
@@ -34542,7 +34542,7 @@
     </row>
     <row r="386" spans="1:4" ht="15.75" customHeight="1">
       <c r="A386" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B386" s="21">
         <v>43409</v>
@@ -34556,7 +34556,7 @@
     </row>
     <row r="387" spans="1:4" ht="15.75" customHeight="1">
       <c r="A387" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B387" s="21">
         <v>43410</v>
@@ -34570,7 +34570,7 @@
     </row>
     <row r="388" spans="1:4" ht="15.75" customHeight="1">
       <c r="A388" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B388" s="21">
         <v>43411</v>
@@ -34584,7 +34584,7 @@
     </row>
     <row r="389" spans="1:4" ht="15.75" customHeight="1">
       <c r="A389" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B389" s="21">
         <v>43412</v>
@@ -34598,7 +34598,7 @@
     </row>
     <row r="390" spans="1:4" ht="15.75" customHeight="1">
       <c r="A390" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B390" s="21">
         <v>43413</v>
@@ -34612,7 +34612,7 @@
     </row>
     <row r="391" spans="1:4" ht="15.75" customHeight="1">
       <c r="A391" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B391" s="21">
         <v>43414</v>
@@ -34626,7 +34626,7 @@
     </row>
     <row r="392" spans="1:4" ht="15.75" customHeight="1">
       <c r="A392" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B392" s="21">
         <v>43415</v>
@@ -34640,7 +34640,7 @@
     </row>
     <row r="393" spans="1:4" ht="15.75" customHeight="1">
       <c r="A393" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B393" s="21">
         <v>43416</v>
@@ -34654,7 +34654,7 @@
     </row>
     <row r="394" spans="1:4" ht="15.75" customHeight="1">
       <c r="A394" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B394" s="21">
         <v>43417</v>
@@ -34668,7 +34668,7 @@
     </row>
     <row r="395" spans="1:4" ht="15.75" customHeight="1">
       <c r="A395" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B395" s="21">
         <v>43418</v>
@@ -34682,7 +34682,7 @@
     </row>
     <row r="396" spans="1:4" ht="15.75" customHeight="1">
       <c r="A396" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B396" s="21">
         <v>43419</v>
@@ -34696,7 +34696,7 @@
     </row>
     <row r="397" spans="1:4" ht="15.75" customHeight="1">
       <c r="A397" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B397" s="21">
         <v>43420</v>
@@ -34710,7 +34710,7 @@
     </row>
     <row r="398" spans="1:4" ht="15.75" customHeight="1">
       <c r="A398" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B398" s="21">
         <v>43421</v>
@@ -34724,7 +34724,7 @@
     </row>
     <row r="399" spans="1:4" ht="15.75" customHeight="1">
       <c r="A399" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B399" s="21">
         <v>43422</v>
@@ -34738,7 +34738,7 @@
     </row>
     <row r="400" spans="1:4" ht="15.75" customHeight="1">
       <c r="A400" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B400" s="21">
         <v>43423</v>
@@ -34752,7 +34752,7 @@
     </row>
     <row r="401" spans="1:4" ht="15.75" customHeight="1">
       <c r="A401" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B401" s="21">
         <v>43424</v>
@@ -34766,7 +34766,7 @@
     </row>
     <row r="402" spans="1:4" ht="15.75" customHeight="1">
       <c r="A402" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B402" s="21">
         <v>43425</v>
@@ -34780,7 +34780,7 @@
     </row>
     <row r="403" spans="1:4" ht="15.75" customHeight="1">
       <c r="A403" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B403" s="21">
         <v>43426</v>
@@ -34794,7 +34794,7 @@
     </row>
     <row r="404" spans="1:4" ht="15.75" customHeight="1">
       <c r="A404" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B404" s="21">
         <v>43427</v>
@@ -34808,7 +34808,7 @@
     </row>
     <row r="405" spans="1:4" ht="15.75" customHeight="1">
       <c r="A405" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B405" s="21">
         <v>43428</v>
@@ -34822,7 +34822,7 @@
     </row>
     <row r="406" spans="1:4" ht="15.75" customHeight="1">
       <c r="A406" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B406" s="21">
         <v>43429</v>
@@ -34836,7 +34836,7 @@
     </row>
     <row r="407" spans="1:4" ht="15.75" customHeight="1">
       <c r="A407" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B407" s="21">
         <v>43430</v>
@@ -34850,7 +34850,7 @@
     </row>
     <row r="408" spans="1:4" ht="15.75" customHeight="1">
       <c r="A408" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B408" s="21">
         <v>43431</v>
@@ -34864,7 +34864,7 @@
     </row>
     <row r="409" spans="1:4" ht="15.75" customHeight="1">
       <c r="A409" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B409" s="21">
         <v>43432</v>
@@ -34878,7 +34878,7 @@
     </row>
     <row r="410" spans="1:4" ht="15.75" customHeight="1">
       <c r="A410" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B410" s="21">
         <v>43433</v>
@@ -34892,7 +34892,7 @@
     </row>
     <row r="411" spans="1:4" ht="15.75" customHeight="1">
       <c r="A411" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B411" s="21">
         <v>43434</v>
@@ -34906,7 +34906,7 @@
     </row>
     <row r="412" spans="1:4" ht="15.75" customHeight="1">
       <c r="A412" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B412" s="21">
         <v>43435</v>
@@ -34920,7 +34920,7 @@
     </row>
     <row r="413" spans="1:4" ht="15.75" customHeight="1">
       <c r="A413" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B413" s="21">
         <v>43436</v>
@@ -34934,7 +34934,7 @@
     </row>
     <row r="414" spans="1:4" ht="15.75" customHeight="1">
       <c r="A414" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B414" s="21">
         <v>43437</v>
@@ -34948,7 +34948,7 @@
     </row>
     <row r="415" spans="1:4" ht="15.75" customHeight="1">
       <c r="A415" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B415" s="21">
         <v>43438</v>
@@ -34962,7 +34962,7 @@
     </row>
     <row r="416" spans="1:4" ht="15.75" customHeight="1">
       <c r="A416" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B416" s="21">
         <v>43439</v>
@@ -34976,7 +34976,7 @@
     </row>
     <row r="417" spans="1:4" ht="15.75" customHeight="1">
       <c r="A417" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B417" s="21">
         <v>43440</v>
@@ -34990,7 +34990,7 @@
     </row>
     <row r="418" spans="1:4" ht="15.75" customHeight="1">
       <c r="A418" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B418" s="21">
         <v>43441</v>
@@ -35004,7 +35004,7 @@
     </row>
     <row r="419" spans="1:4" ht="15.75" customHeight="1">
       <c r="A419" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B419" s="21">
         <v>43442</v>
@@ -35018,7 +35018,7 @@
     </row>
     <row r="420" spans="1:4" ht="15.75" customHeight="1">
       <c r="A420" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B420" s="21">
         <v>43443</v>
@@ -35032,7 +35032,7 @@
     </row>
     <row r="421" spans="1:4" ht="15.75" customHeight="1">
       <c r="A421" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B421" s="21">
         <v>43444</v>
@@ -35046,7 +35046,7 @@
     </row>
     <row r="422" spans="1:4" ht="15.75" customHeight="1">
       <c r="A422" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B422" s="21">
         <v>43445</v>
@@ -35060,7 +35060,7 @@
     </row>
     <row r="423" spans="1:4" ht="15.75" customHeight="1">
       <c r="A423" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B423" s="21">
         <v>43446</v>
@@ -35074,7 +35074,7 @@
     </row>
     <row r="424" spans="1:4" ht="15.75" customHeight="1">
       <c r="A424" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B424" s="21">
         <v>43447</v>
@@ -35088,7 +35088,7 @@
     </row>
     <row r="425" spans="1:4" ht="15.75" customHeight="1">
       <c r="A425" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B425" s="21">
         <v>43448</v>
@@ -35102,7 +35102,7 @@
     </row>
     <row r="426" spans="1:4" ht="15.75" customHeight="1">
       <c r="A426" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B426" s="21">
         <v>43449</v>
@@ -35116,7 +35116,7 @@
     </row>
     <row r="427" spans="1:4" ht="15.75" customHeight="1">
       <c r="A427" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B427" s="21">
         <v>43450</v>
@@ -35130,7 +35130,7 @@
     </row>
     <row r="428" spans="1:4" ht="15.75" customHeight="1">
       <c r="A428" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B428" s="21">
         <v>43451</v>
@@ -35144,7 +35144,7 @@
     </row>
     <row r="429" spans="1:4" ht="15.75" customHeight="1">
       <c r="A429" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B429" s="21">
         <v>43452</v>
@@ -35158,7 +35158,7 @@
     </row>
     <row r="430" spans="1:4" ht="15.75" customHeight="1">
       <c r="A430" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B430" s="21">
         <v>43453</v>
@@ -35172,7 +35172,7 @@
     </row>
     <row r="431" spans="1:4" ht="15.75" customHeight="1">
       <c r="A431" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B431" s="21">
         <v>43454</v>
@@ -35186,7 +35186,7 @@
     </row>
     <row r="432" spans="1:4" ht="15.75" customHeight="1">
       <c r="A432" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B432" s="21">
         <v>43455</v>
@@ -35200,7 +35200,7 @@
     </row>
     <row r="433" spans="1:4" ht="15.75" customHeight="1">
       <c r="A433" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B433" s="21">
         <v>43456</v>
@@ -35214,7 +35214,7 @@
     </row>
     <row r="434" spans="1:4" ht="15.75" customHeight="1">
       <c r="A434" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B434" s="21">
         <v>43457</v>
@@ -35228,7 +35228,7 @@
     </row>
     <row r="435" spans="1:4" ht="15.75" customHeight="1">
       <c r="A435" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B435" s="21">
         <v>43458</v>
@@ -35242,7 +35242,7 @@
     </row>
     <row r="436" spans="1:4" ht="15.75" customHeight="1">
       <c r="A436" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B436" s="21">
         <v>43459</v>
@@ -35256,7 +35256,7 @@
     </row>
     <row r="437" spans="1:4" ht="15.75" customHeight="1">
       <c r="A437" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B437" s="21">
         <v>43460</v>
@@ -35270,7 +35270,7 @@
     </row>
     <row r="438" spans="1:4" ht="15.75" customHeight="1">
       <c r="A438" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B438" s="21">
         <v>43461</v>
@@ -35284,7 +35284,7 @@
     </row>
     <row r="439" spans="1:4" ht="15.75" customHeight="1">
       <c r="A439" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B439" s="21">
         <v>43462</v>
@@ -35298,7 +35298,7 @@
     </row>
     <row r="440" spans="1:4" ht="15.75" customHeight="1">
       <c r="A440" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B440" s="21">
         <v>43463</v>
@@ -35312,7 +35312,7 @@
     </row>
     <row r="441" spans="1:4" ht="15.75" customHeight="1">
       <c r="A441" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B441" s="21">
         <v>43464</v>
@@ -35326,7 +35326,7 @@
     </row>
     <row r="442" spans="1:4" ht="15.75" customHeight="1">
       <c r="A442" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B442" s="21">
         <v>43465</v>
@@ -35340,7 +35340,7 @@
     </row>
     <row r="443" spans="1:4" ht="15.75" customHeight="1">
       <c r="A443" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B443" s="21">
         <v>43376</v>
@@ -35354,7 +35354,7 @@
     </row>
     <row r="444" spans="1:4" ht="15.75" customHeight="1">
       <c r="A444" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B444" s="21">
         <v>43377</v>
@@ -35368,7 +35368,7 @@
     </row>
     <row r="445" spans="1:4" ht="15.75" customHeight="1">
       <c r="A445" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B445" s="21">
         <v>43378</v>
@@ -35382,7 +35382,7 @@
     </row>
     <row r="446" spans="1:4" ht="15.75" customHeight="1">
       <c r="A446" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B446" s="21">
         <v>43379</v>
@@ -35396,7 +35396,7 @@
     </row>
     <row r="447" spans="1:4" ht="15.75" customHeight="1">
       <c r="A447" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B447" s="21">
         <v>43380</v>
@@ -35410,7 +35410,7 @@
     </row>
     <row r="448" spans="1:4" ht="15.75" customHeight="1">
       <c r="A448" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B448" s="21">
         <v>43381</v>
@@ -35424,7 +35424,7 @@
     </row>
     <row r="449" spans="1:4" ht="15.75" customHeight="1">
       <c r="A449" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B449" s="21">
         <v>43382</v>
@@ -35438,7 +35438,7 @@
     </row>
     <row r="450" spans="1:4" ht="15.75" customHeight="1">
       <c r="A450" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B450" s="21">
         <v>43383</v>
@@ -35452,7 +35452,7 @@
     </row>
     <row r="451" spans="1:4" ht="15.75" customHeight="1">
       <c r="A451" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B451" s="21">
         <v>43384</v>
@@ -35466,7 +35466,7 @@
     </row>
     <row r="452" spans="1:4" ht="15.75" customHeight="1">
       <c r="A452" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B452" s="21">
         <v>43385</v>
@@ -35480,7 +35480,7 @@
     </row>
     <row r="453" spans="1:4" ht="15.75" customHeight="1">
       <c r="A453" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B453" s="21">
         <v>43386</v>
@@ -35494,7 +35494,7 @@
     </row>
     <row r="454" spans="1:4" ht="15.75" customHeight="1">
       <c r="A454" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B454" s="21">
         <v>43387</v>
@@ -35508,7 +35508,7 @@
     </row>
     <row r="455" spans="1:4" ht="15.75" customHeight="1">
       <c r="A455" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B455" s="21">
         <v>43388</v>
@@ -35522,7 +35522,7 @@
     </row>
     <row r="456" spans="1:4" ht="15.75" customHeight="1">
       <c r="A456" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B456" s="21">
         <v>43389</v>
@@ -35536,7 +35536,7 @@
     </row>
     <row r="457" spans="1:4" ht="15.75" customHeight="1">
       <c r="A457" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B457" s="21">
         <v>43390</v>
@@ -35550,7 +35550,7 @@
     </row>
     <row r="458" spans="1:4" ht="15.75" customHeight="1">
       <c r="A458" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B458" s="21">
         <v>43391</v>
@@ -35564,7 +35564,7 @@
     </row>
     <row r="459" spans="1:4" ht="15.75" customHeight="1">
       <c r="A459" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B459" s="21">
         <v>43392</v>
@@ -35578,7 +35578,7 @@
     </row>
     <row r="460" spans="1:4" ht="15.75" customHeight="1">
       <c r="A460" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B460" s="21">
         <v>43393</v>
@@ -35592,7 +35592,7 @@
     </row>
     <row r="461" spans="1:4" ht="15.75" customHeight="1">
       <c r="A461" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B461" s="21">
         <v>43394</v>
@@ -35606,7 +35606,7 @@
     </row>
     <row r="462" spans="1:4" ht="15.75" customHeight="1">
       <c r="A462" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B462" s="21">
         <v>43395</v>
@@ -35620,7 +35620,7 @@
     </row>
     <row r="463" spans="1:4" ht="15.75" customHeight="1">
       <c r="A463" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B463" s="21">
         <v>43396</v>
@@ -35634,7 +35634,7 @@
     </row>
     <row r="464" spans="1:4" ht="15.75" customHeight="1">
       <c r="A464" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B464" s="21">
         <v>43397</v>
@@ -35648,7 +35648,7 @@
     </row>
     <row r="465" spans="1:4" ht="15.75" customHeight="1">
       <c r="A465" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B465" s="21">
         <v>43398</v>
@@ -35662,7 +35662,7 @@
     </row>
     <row r="466" spans="1:4" ht="15.75" customHeight="1">
       <c r="A466" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B466" s="21">
         <v>43399</v>
@@ -35676,7 +35676,7 @@
     </row>
     <row r="467" spans="1:4" ht="15.75" customHeight="1">
       <c r="A467" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B467" s="21">
         <v>43400</v>
@@ -35690,7 +35690,7 @@
     </row>
     <row r="468" spans="1:4" ht="15.75" customHeight="1">
       <c r="A468" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B468" s="21">
         <v>43401</v>
@@ -35704,7 +35704,7 @@
     </row>
     <row r="469" spans="1:4" ht="15.75" customHeight="1">
       <c r="A469" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B469" s="21">
         <v>43402</v>
@@ -35718,7 +35718,7 @@
     </row>
     <row r="470" spans="1:4" ht="15.75" customHeight="1">
       <c r="A470" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B470" s="21">
         <v>43403</v>
@@ -35732,7 +35732,7 @@
     </row>
     <row r="471" spans="1:4" ht="15.75" customHeight="1">
       <c r="A471" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B471" s="21">
         <v>43404</v>
@@ -35746,7 +35746,7 @@
     </row>
     <row r="472" spans="1:4" ht="15.75" customHeight="1">
       <c r="A472" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B472" s="21">
         <v>43405</v>
@@ -35760,7 +35760,7 @@
     </row>
     <row r="473" spans="1:4" ht="15.75" customHeight="1">
       <c r="A473" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B473" s="21">
         <v>43406</v>
@@ -35774,7 +35774,7 @@
     </row>
     <row r="474" spans="1:4" ht="15.75" customHeight="1">
       <c r="A474" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B474" s="21">
         <v>43407</v>
@@ -35788,7 +35788,7 @@
     </row>
     <row r="475" spans="1:4" ht="15.75" customHeight="1">
       <c r="A475" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B475" s="21">
         <v>43408</v>
@@ -35802,7 +35802,7 @@
     </row>
     <row r="476" spans="1:4" ht="15.75" customHeight="1">
       <c r="A476" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B476" s="21">
         <v>43409</v>
@@ -35816,7 +35816,7 @@
     </row>
     <row r="477" spans="1:4" ht="15.75" customHeight="1">
       <c r="A477" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B477" s="21">
         <v>43410</v>
@@ -35830,7 +35830,7 @@
     </row>
     <row r="478" spans="1:4" ht="15.75" customHeight="1">
       <c r="A478" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B478" s="21">
         <v>43411</v>
@@ -35844,7 +35844,7 @@
     </row>
     <row r="479" spans="1:4" ht="15.75" customHeight="1">
       <c r="A479" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B479" s="21">
         <v>43412</v>
@@ -35858,7 +35858,7 @@
     </row>
     <row r="480" spans="1:4" ht="15.75" customHeight="1">
       <c r="A480" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B480" s="21">
         <v>43413</v>
@@ -35872,7 +35872,7 @@
     </row>
     <row r="481" spans="1:4" ht="15.75" customHeight="1">
       <c r="A481" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B481" s="21">
         <v>43414</v>
@@ -35886,7 +35886,7 @@
     </row>
     <row r="482" spans="1:4" ht="15.75" customHeight="1">
       <c r="A482" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B482" s="21">
         <v>43415</v>
@@ -35900,7 +35900,7 @@
     </row>
     <row r="483" spans="1:4" ht="15.75" customHeight="1">
       <c r="A483" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B483" s="21">
         <v>43416</v>
@@ -35914,7 +35914,7 @@
     </row>
     <row r="484" spans="1:4" ht="15.75" customHeight="1">
       <c r="A484" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B484" s="21">
         <v>43417</v>
@@ -35928,7 +35928,7 @@
     </row>
     <row r="485" spans="1:4" ht="15.75" customHeight="1">
       <c r="A485" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B485" s="21">
         <v>43418</v>
@@ -35942,7 +35942,7 @@
     </row>
     <row r="486" spans="1:4" ht="15.75" customHeight="1">
       <c r="A486" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B486" s="21">
         <v>43419</v>
@@ -35956,7 +35956,7 @@
     </row>
     <row r="487" spans="1:4" ht="15.75" customHeight="1">
       <c r="A487" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B487" s="21">
         <v>43420</v>
@@ -35970,7 +35970,7 @@
     </row>
     <row r="488" spans="1:4" ht="15.75" customHeight="1">
       <c r="A488" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B488" s="21">
         <v>43421</v>
@@ -35984,7 +35984,7 @@
     </row>
     <row r="489" spans="1:4" ht="15.75" customHeight="1">
       <c r="A489" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B489" s="21">
         <v>43422</v>
@@ -35998,7 +35998,7 @@
     </row>
     <row r="490" spans="1:4" ht="15.75" customHeight="1">
       <c r="A490" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B490" s="21">
         <v>43423</v>
@@ -36012,7 +36012,7 @@
     </row>
     <row r="491" spans="1:4" ht="15.75" customHeight="1">
       <c r="A491" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B491" s="21">
         <v>43424</v>
@@ -36026,7 +36026,7 @@
     </row>
     <row r="492" spans="1:4" ht="15.75" customHeight="1">
       <c r="A492" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B492" s="21">
         <v>43425</v>
@@ -36040,7 +36040,7 @@
     </row>
     <row r="493" spans="1:4" ht="15.75" customHeight="1">
       <c r="A493" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B493" s="21">
         <v>43426</v>
@@ -36054,7 +36054,7 @@
     </row>
     <row r="494" spans="1:4" ht="15.75" customHeight="1">
       <c r="A494" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B494" s="21">
         <v>43427</v>
@@ -36068,7 +36068,7 @@
     </row>
     <row r="495" spans="1:4" ht="15.75" customHeight="1">
       <c r="A495" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B495" s="21">
         <v>43428</v>
@@ -36082,7 +36082,7 @@
     </row>
     <row r="496" spans="1:4" ht="15.75" customHeight="1">
       <c r="A496" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B496" s="21">
         <v>43429</v>
@@ -36096,7 +36096,7 @@
     </row>
     <row r="497" spans="1:4" ht="15.75" customHeight="1">
       <c r="A497" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B497" s="21">
         <v>43430</v>
@@ -36110,7 +36110,7 @@
     </row>
     <row r="498" spans="1:4" ht="15.75" customHeight="1">
       <c r="A498" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B498" s="21">
         <v>43431</v>
@@ -36124,7 +36124,7 @@
     </row>
     <row r="499" spans="1:4" ht="15.75" customHeight="1">
       <c r="A499" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B499" s="21">
         <v>43432</v>
@@ -36138,7 +36138,7 @@
     </row>
     <row r="500" spans="1:4" ht="15.75" customHeight="1">
       <c r="A500" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B500" s="21">
         <v>43433</v>
@@ -36152,7 +36152,7 @@
     </row>
     <row r="501" spans="1:4" ht="15.75" customHeight="1">
       <c r="A501" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B501" s="21">
         <v>43434</v>
@@ -36166,7 +36166,7 @@
     </row>
     <row r="502" spans="1:4" ht="15.75" customHeight="1">
       <c r="A502" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B502" s="21">
         <v>43435</v>
@@ -36180,7 +36180,7 @@
     </row>
     <row r="503" spans="1:4" ht="15.75" customHeight="1">
       <c r="A503" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B503" s="21">
         <v>43436</v>
@@ -36194,7 +36194,7 @@
     </row>
     <row r="504" spans="1:4" ht="15.75" customHeight="1">
       <c r="A504" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B504" s="21">
         <v>43437</v>
@@ -36208,7 +36208,7 @@
     </row>
     <row r="505" spans="1:4" ht="15.75" customHeight="1">
       <c r="A505" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B505" s="21">
         <v>43438</v>
@@ -36222,7 +36222,7 @@
     </row>
     <row r="506" spans="1:4" ht="15.75" customHeight="1">
       <c r="A506" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B506" s="21">
         <v>43439</v>
@@ -36236,7 +36236,7 @@
     </row>
     <row r="507" spans="1:4" ht="15.75" customHeight="1">
       <c r="A507" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B507" s="21">
         <v>43440</v>
@@ -36250,7 +36250,7 @@
     </row>
     <row r="508" spans="1:4" ht="15.75" customHeight="1">
       <c r="A508" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B508" s="21">
         <v>43441</v>
@@ -36264,7 +36264,7 @@
     </row>
     <row r="509" spans="1:4" ht="15.75" customHeight="1">
       <c r="A509" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B509" s="21">
         <v>43442</v>
@@ -36278,7 +36278,7 @@
     </row>
     <row r="510" spans="1:4" ht="15.75" customHeight="1">
       <c r="A510" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B510" s="21">
         <v>43443</v>
@@ -36292,7 +36292,7 @@
     </row>
     <row r="511" spans="1:4" ht="15.75" customHeight="1">
       <c r="A511" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B511" s="21">
         <v>43444</v>
@@ -36306,7 +36306,7 @@
     </row>
     <row r="512" spans="1:4" ht="15.75" customHeight="1">
       <c r="A512" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B512" s="21">
         <v>43445</v>
@@ -36320,7 +36320,7 @@
     </row>
     <row r="513" spans="1:4" ht="15.75" customHeight="1">
       <c r="A513" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B513" s="21">
         <v>43446</v>
@@ -36334,7 +36334,7 @@
     </row>
     <row r="514" spans="1:4" ht="15.75" customHeight="1">
       <c r="A514" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B514" s="21">
         <v>43447</v>
@@ -36348,7 +36348,7 @@
     </row>
     <row r="515" spans="1:4" ht="15.75" customHeight="1">
       <c r="A515" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B515" s="21">
         <v>43448</v>
@@ -36362,7 +36362,7 @@
     </row>
     <row r="516" spans="1:4" ht="15.75" customHeight="1">
       <c r="A516" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B516" s="21">
         <v>43449</v>
@@ -36376,7 +36376,7 @@
     </row>
     <row r="517" spans="1:4" ht="15.75" customHeight="1">
       <c r="A517" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B517" s="21">
         <v>43450</v>
@@ -36390,7 +36390,7 @@
     </row>
     <row r="518" spans="1:4" ht="15.75" customHeight="1">
       <c r="A518" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B518" s="21">
         <v>43451</v>
@@ -36404,7 +36404,7 @@
     </row>
     <row r="519" spans="1:4" ht="15.75" customHeight="1">
       <c r="A519" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B519" s="21">
         <v>43452</v>
@@ -36418,7 +36418,7 @@
     </row>
     <row r="520" spans="1:4" ht="15.75" customHeight="1">
       <c r="A520" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B520" s="21">
         <v>43453</v>
@@ -36432,7 +36432,7 @@
     </row>
     <row r="521" spans="1:4" ht="15.75" customHeight="1">
       <c r="A521" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B521" s="21">
         <v>43454</v>
@@ -36446,7 +36446,7 @@
     </row>
     <row r="522" spans="1:4" ht="15.75" customHeight="1">
       <c r="A522" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B522" s="21">
         <v>43455</v>
@@ -36460,7 +36460,7 @@
     </row>
     <row r="523" spans="1:4" ht="15.75" customHeight="1">
       <c r="A523" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B523" s="21">
         <v>43456</v>
@@ -36474,7 +36474,7 @@
     </row>
     <row r="524" spans="1:4" ht="15.75" customHeight="1">
       <c r="A524" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B524" s="21">
         <v>43457</v>
@@ -36488,7 +36488,7 @@
     </row>
     <row r="525" spans="1:4" ht="15.75" customHeight="1">
       <c r="A525" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B525" s="21">
         <v>43458</v>
@@ -36502,7 +36502,7 @@
     </row>
     <row r="526" spans="1:4" ht="15.75" customHeight="1">
       <c r="A526" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B526" s="21">
         <v>43459</v>
@@ -36516,7 +36516,7 @@
     </row>
     <row r="527" spans="1:4" ht="15.75" customHeight="1">
       <c r="A527" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B527" s="21">
         <v>43460</v>
@@ -36530,7 +36530,7 @@
     </row>
     <row r="528" spans="1:4" ht="15.75" customHeight="1">
       <c r="A528" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B528" s="21">
         <v>43461</v>
@@ -36544,7 +36544,7 @@
     </row>
     <row r="529" spans="1:4" ht="15.75" customHeight="1">
       <c r="A529" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B529" s="21">
         <v>43462</v>
@@ -36558,7 +36558,7 @@
     </row>
     <row r="530" spans="1:4" ht="15.75" customHeight="1">
       <c r="A530" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B530" s="21">
         <v>43463</v>
@@ -36572,7 +36572,7 @@
     </row>
     <row r="531" spans="1:4" ht="15.75" customHeight="1">
       <c r="A531" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B531" s="21">
         <v>43464</v>
@@ -36586,7 +36586,7 @@
     </row>
     <row r="532" spans="1:4" ht="15.75" customHeight="1">
       <c r="A532" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B532" s="21">
         <v>43465</v>
@@ -36600,7 +36600,7 @@
     </row>
     <row r="533" spans="1:4" ht="15.75" customHeight="1">
       <c r="A533" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B533" s="21">
         <v>43376</v>
@@ -36614,7 +36614,7 @@
     </row>
     <row r="534" spans="1:4" ht="15.75" customHeight="1">
       <c r="A534" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B534" s="21">
         <v>43377</v>
@@ -36628,7 +36628,7 @@
     </row>
     <row r="535" spans="1:4" ht="15.75" customHeight="1">
       <c r="A535" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B535" s="21">
         <v>43378</v>
@@ -36642,7 +36642,7 @@
     </row>
     <row r="536" spans="1:4" ht="15.75" customHeight="1">
       <c r="A536" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B536" s="21">
         <v>43379</v>
@@ -36656,7 +36656,7 @@
     </row>
     <row r="537" spans="1:4" ht="15.75" customHeight="1">
       <c r="A537" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B537" s="21">
         <v>43380</v>
@@ -36670,7 +36670,7 @@
     </row>
     <row r="538" spans="1:4" ht="15.75" customHeight="1">
       <c r="A538" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B538" s="21">
         <v>43381</v>
@@ -36684,7 +36684,7 @@
     </row>
     <row r="539" spans="1:4" ht="15.75" customHeight="1">
       <c r="A539" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B539" s="21">
         <v>43382</v>
@@ -36698,7 +36698,7 @@
     </row>
     <row r="540" spans="1:4" ht="15.75" customHeight="1">
       <c r="A540" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B540" s="21">
         <v>43383</v>
@@ -36712,7 +36712,7 @@
     </row>
     <row r="541" spans="1:4" ht="15.75" customHeight="1">
       <c r="A541" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B541" s="21">
         <v>43384</v>
@@ -36726,7 +36726,7 @@
     </row>
     <row r="542" spans="1:4" ht="15.75" customHeight="1">
       <c r="A542" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B542" s="21">
         <v>43385</v>
@@ -36740,7 +36740,7 @@
     </row>
     <row r="543" spans="1:4" ht="15.75" customHeight="1">
       <c r="A543" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B543" s="21">
         <v>43386</v>
@@ -36754,7 +36754,7 @@
     </row>
     <row r="544" spans="1:4" ht="15.75" customHeight="1">
       <c r="A544" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B544" s="21">
         <v>43387</v>
@@ -36768,7 +36768,7 @@
     </row>
     <row r="545" spans="1:4" ht="15.75" customHeight="1">
       <c r="A545" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B545" s="21">
         <v>43388</v>
@@ -36782,7 +36782,7 @@
     </row>
     <row r="546" spans="1:4" ht="15.75" customHeight="1">
       <c r="A546" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B546" s="21">
         <v>43389</v>
@@ -36796,7 +36796,7 @@
     </row>
     <row r="547" spans="1:4" ht="15.75" customHeight="1">
       <c r="A547" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B547" s="21">
         <v>43390</v>
@@ -36810,7 +36810,7 @@
     </row>
     <row r="548" spans="1:4" ht="15.75" customHeight="1">
       <c r="A548" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B548" s="21">
         <v>43391</v>
@@ -36824,7 +36824,7 @@
     </row>
     <row r="549" spans="1:4" ht="15.75" customHeight="1">
       <c r="A549" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B549" s="21">
         <v>43392</v>
@@ -36838,7 +36838,7 @@
     </row>
     <row r="550" spans="1:4" ht="15.75" customHeight="1">
       <c r="A550" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B550" s="21">
         <v>43393</v>
@@ -36852,7 +36852,7 @@
     </row>
     <row r="551" spans="1:4" ht="15.75" customHeight="1">
       <c r="A551" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B551" s="21">
         <v>43394</v>
@@ -36866,7 +36866,7 @@
     </row>
     <row r="552" spans="1:4" ht="15.75" customHeight="1">
       <c r="A552" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B552" s="21">
         <v>43395</v>
@@ -36880,7 +36880,7 @@
     </row>
     <row r="553" spans="1:4" ht="15.75" customHeight="1">
       <c r="A553" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B553" s="21">
         <v>43396</v>
@@ -36894,7 +36894,7 @@
     </row>
     <row r="554" spans="1:4" ht="15.75" customHeight="1">
       <c r="A554" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B554" s="21">
         <v>43397</v>
@@ -36908,7 +36908,7 @@
     </row>
     <row r="555" spans="1:4" ht="15.75" customHeight="1">
       <c r="A555" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B555" s="21">
         <v>43398</v>
@@ -36922,7 +36922,7 @@
     </row>
     <row r="556" spans="1:4" ht="15.75" customHeight="1">
       <c r="A556" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B556" s="21">
         <v>43399</v>
@@ -36936,7 +36936,7 @@
     </row>
     <row r="557" spans="1:4" ht="15.75" customHeight="1">
       <c r="A557" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B557" s="21">
         <v>43400</v>
@@ -36950,7 +36950,7 @@
     </row>
     <row r="558" spans="1:4" ht="15.75" customHeight="1">
       <c r="A558" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B558" s="21">
         <v>43401</v>
@@ -36964,7 +36964,7 @@
     </row>
     <row r="559" spans="1:4" ht="15.75" customHeight="1">
       <c r="A559" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B559" s="21">
         <v>43402</v>
@@ -36978,7 +36978,7 @@
     </row>
     <row r="560" spans="1:4" ht="15.75" customHeight="1">
       <c r="A560" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B560" s="21">
         <v>43403</v>
@@ -36992,7 +36992,7 @@
     </row>
     <row r="561" spans="1:4" ht="15.75" customHeight="1">
       <c r="A561" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B561" s="21">
         <v>43404</v>
@@ -37006,7 +37006,7 @@
     </row>
     <row r="562" spans="1:4" ht="15.75" customHeight="1">
       <c r="A562" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B562" s="21">
         <v>43405</v>
@@ -37020,7 +37020,7 @@
     </row>
     <row r="563" spans="1:4" ht="15.75" customHeight="1">
       <c r="A563" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B563" s="21">
         <v>43406</v>
@@ -37034,7 +37034,7 @@
     </row>
     <row r="564" spans="1:4" ht="15.75" customHeight="1">
       <c r="A564" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B564" s="21">
         <v>43407</v>
@@ -37048,7 +37048,7 @@
     </row>
     <row r="565" spans="1:4" ht="15.75" customHeight="1">
       <c r="A565" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B565" s="21">
         <v>43408</v>
@@ -37062,7 +37062,7 @@
     </row>
     <row r="566" spans="1:4" ht="15.75" customHeight="1">
       <c r="A566" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B566" s="21">
         <v>43409</v>
@@ -37076,7 +37076,7 @@
     </row>
     <row r="567" spans="1:4" ht="15.75" customHeight="1">
       <c r="A567" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B567" s="21">
         <v>43410</v>
@@ -37090,7 +37090,7 @@
     </row>
     <row r="568" spans="1:4" ht="15.75" customHeight="1">
       <c r="A568" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B568" s="21">
         <v>43411</v>
@@ -37104,7 +37104,7 @@
     </row>
     <row r="569" spans="1:4" ht="15.75" customHeight="1">
       <c r="A569" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B569" s="21">
         <v>43412</v>
@@ -37118,7 +37118,7 @@
     </row>
     <row r="570" spans="1:4" ht="15.75" customHeight="1">
       <c r="A570" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B570" s="21">
         <v>43413</v>
@@ -37132,7 +37132,7 @@
     </row>
     <row r="571" spans="1:4" ht="15.75" customHeight="1">
       <c r="A571" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B571" s="21">
         <v>43414</v>
@@ -37146,7 +37146,7 @@
     </row>
     <row r="572" spans="1:4" ht="15.75" customHeight="1">
       <c r="A572" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B572" s="21">
         <v>43415</v>
@@ -37160,7 +37160,7 @@
     </row>
     <row r="573" spans="1:4" ht="15.75" customHeight="1">
       <c r="A573" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B573" s="21">
         <v>43416</v>
@@ -37174,7 +37174,7 @@
     </row>
     <row r="574" spans="1:4" ht="15.75" customHeight="1">
       <c r="A574" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B574" s="21">
         <v>43417</v>
@@ -37188,7 +37188,7 @@
     </row>
     <row r="575" spans="1:4" ht="15.75" customHeight="1">
       <c r="A575" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B575" s="21">
         <v>43418</v>
@@ -37202,7 +37202,7 @@
     </row>
     <row r="576" spans="1:4" ht="15.75" customHeight="1">
       <c r="A576" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B576" s="21">
         <v>43419</v>
@@ -37216,7 +37216,7 @@
     </row>
     <row r="577" spans="1:4" ht="15.75" customHeight="1">
       <c r="A577" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B577" s="21">
         <v>43420</v>
@@ -37230,7 +37230,7 @@
     </row>
     <row r="578" spans="1:4" ht="15.75" customHeight="1">
       <c r="A578" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B578" s="21">
         <v>43421</v>
@@ -37244,7 +37244,7 @@
     </row>
     <row r="579" spans="1:4" ht="15.75" customHeight="1">
       <c r="A579" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B579" s="21">
         <v>43422</v>
@@ -37258,7 +37258,7 @@
     </row>
     <row r="580" spans="1:4" ht="15.75" customHeight="1">
       <c r="A580" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B580" s="21">
         <v>43423</v>
@@ -37272,7 +37272,7 @@
     </row>
     <row r="581" spans="1:4" ht="15.75" customHeight="1">
       <c r="A581" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B581" s="21">
         <v>43424</v>
@@ -37286,7 +37286,7 @@
     </row>
     <row r="582" spans="1:4" ht="15.75" customHeight="1">
       <c r="A582" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B582" s="21">
         <v>43425</v>
@@ -37300,7 +37300,7 @@
     </row>
     <row r="583" spans="1:4" ht="15.75" customHeight="1">
       <c r="A583" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B583" s="21">
         <v>43426</v>
@@ -37314,7 +37314,7 @@
     </row>
     <row r="584" spans="1:4" ht="15.75" customHeight="1">
       <c r="A584" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B584" s="21">
         <v>43427</v>
@@ -37328,7 +37328,7 @@
     </row>
     <row r="585" spans="1:4" ht="15.75" customHeight="1">
       <c r="A585" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B585" s="21">
         <v>43428</v>
@@ -37342,7 +37342,7 @@
     </row>
     <row r="586" spans="1:4" ht="15.75" customHeight="1">
       <c r="A586" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B586" s="21">
         <v>43429</v>
@@ -37356,7 +37356,7 @@
     </row>
     <row r="587" spans="1:4" ht="15.75" customHeight="1">
       <c r="A587" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B587" s="21">
         <v>43430</v>
@@ -37370,7 +37370,7 @@
     </row>
     <row r="588" spans="1:4" ht="15.75" customHeight="1">
       <c r="A588" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B588" s="21">
         <v>43431</v>
@@ -37384,7 +37384,7 @@
     </row>
     <row r="589" spans="1:4" ht="15.75" customHeight="1">
       <c r="A589" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B589" s="21">
         <v>43432</v>
@@ -37398,7 +37398,7 @@
     </row>
     <row r="590" spans="1:4" ht="15.75" customHeight="1">
       <c r="A590" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B590" s="21">
         <v>43433</v>
@@ -37412,7 +37412,7 @@
     </row>
     <row r="591" spans="1:4" ht="15.75" customHeight="1">
       <c r="A591" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B591" s="21">
         <v>43434</v>
@@ -37426,7 +37426,7 @@
     </row>
     <row r="592" spans="1:4" ht="15.75" customHeight="1">
       <c r="A592" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B592" s="21">
         <v>43435</v>
@@ -37440,7 +37440,7 @@
     </row>
     <row r="593" spans="1:4" ht="15.75" customHeight="1">
       <c r="A593" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B593" s="21">
         <v>43436</v>
@@ -37454,7 +37454,7 @@
     </row>
     <row r="594" spans="1:4" ht="15.75" customHeight="1">
       <c r="A594" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B594" s="21">
         <v>43437</v>
@@ -37468,7 +37468,7 @@
     </row>
     <row r="595" spans="1:4" ht="15.75" customHeight="1">
       <c r="A595" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B595" s="21">
         <v>43438</v>
@@ -37482,7 +37482,7 @@
     </row>
     <row r="596" spans="1:4" ht="15.75" customHeight="1">
       <c r="A596" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B596" s="21">
         <v>43439</v>
@@ -37496,7 +37496,7 @@
     </row>
     <row r="597" spans="1:4" ht="15.75" customHeight="1">
       <c r="A597" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B597" s="21">
         <v>43440</v>
@@ -37510,7 +37510,7 @@
     </row>
     <row r="598" spans="1:4" ht="15.75" customHeight="1">
       <c r="A598" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B598" s="21">
         <v>43441</v>
@@ -37524,7 +37524,7 @@
     </row>
     <row r="599" spans="1:4" ht="15.75" customHeight="1">
       <c r="A599" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B599" s="21">
         <v>43442</v>
@@ -37538,7 +37538,7 @@
     </row>
     <row r="600" spans="1:4" ht="15.75" customHeight="1">
       <c r="A600" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B600" s="21">
         <v>43443</v>
@@ -37552,7 +37552,7 @@
     </row>
     <row r="601" spans="1:4" ht="15.75" customHeight="1">
       <c r="A601" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B601" s="21">
         <v>43444</v>
@@ -37566,7 +37566,7 @@
     </row>
     <row r="602" spans="1:4" ht="15.75" customHeight="1">
       <c r="A602" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B602" s="21">
         <v>43445</v>
@@ -37580,7 +37580,7 @@
     </row>
     <row r="603" spans="1:4" ht="15.75" customHeight="1">
       <c r="A603" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B603" s="21">
         <v>43446</v>
@@ -37594,7 +37594,7 @@
     </row>
     <row r="604" spans="1:4" ht="15.75" customHeight="1">
       <c r="A604" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B604" s="21">
         <v>43447</v>
@@ -37608,7 +37608,7 @@
     </row>
     <row r="605" spans="1:4" ht="15.75" customHeight="1">
       <c r="A605" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B605" s="21">
         <v>43448</v>
@@ -37622,7 +37622,7 @@
     </row>
     <row r="606" spans="1:4" ht="15.75" customHeight="1">
       <c r="A606" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B606" s="21">
         <v>43449</v>
@@ -37636,7 +37636,7 @@
     </row>
     <row r="607" spans="1:4" ht="15.75" customHeight="1">
       <c r="A607" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B607" s="21">
         <v>43450</v>
@@ -37650,7 +37650,7 @@
     </row>
     <row r="608" spans="1:4" ht="15.75" customHeight="1">
       <c r="A608" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B608" s="21">
         <v>43451</v>
@@ -37664,7 +37664,7 @@
     </row>
     <row r="609" spans="1:4" ht="15.75" customHeight="1">
       <c r="A609" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B609" s="21">
         <v>43452</v>
@@ -37678,7 +37678,7 @@
     </row>
     <row r="610" spans="1:4" ht="15.75" customHeight="1">
       <c r="A610" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B610" s="21">
         <v>43453</v>
@@ -37692,7 +37692,7 @@
     </row>
     <row r="611" spans="1:4" ht="15.75" customHeight="1">
       <c r="A611" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B611" s="21">
         <v>43454</v>
@@ -37706,7 +37706,7 @@
     </row>
     <row r="612" spans="1:4" ht="15.75" customHeight="1">
       <c r="A612" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B612" s="21">
         <v>43455</v>
@@ -37720,7 +37720,7 @@
     </row>
     <row r="613" spans="1:4" ht="15.75" customHeight="1">
       <c r="A613" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B613" s="21">
         <v>43456</v>
@@ -37734,7 +37734,7 @@
     </row>
     <row r="614" spans="1:4" ht="15.75" customHeight="1">
       <c r="A614" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B614" s="21">
         <v>43457</v>
@@ -37748,7 +37748,7 @@
     </row>
     <row r="615" spans="1:4" ht="15.75" customHeight="1">
       <c r="A615" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B615" s="21">
         <v>43458</v>
@@ -37762,7 +37762,7 @@
     </row>
     <row r="616" spans="1:4" ht="15.75" customHeight="1">
       <c r="A616" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B616" s="21">
         <v>43459</v>
@@ -37776,7 +37776,7 @@
     </row>
     <row r="617" spans="1:4" ht="15.75" customHeight="1">
       <c r="A617" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B617" s="21">
         <v>43460</v>
@@ -37790,7 +37790,7 @@
     </row>
     <row r="618" spans="1:4" ht="15.75" customHeight="1">
       <c r="A618" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B618" s="21">
         <v>43461</v>
@@ -37804,7 +37804,7 @@
     </row>
     <row r="619" spans="1:4" ht="15.75" customHeight="1">
       <c r="A619" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B619" s="21">
         <v>43462</v>
@@ -37818,7 +37818,7 @@
     </row>
     <row r="620" spans="1:4" ht="15.75" customHeight="1">
       <c r="A620" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B620" s="21">
         <v>43463</v>
@@ -37832,7 +37832,7 @@
     </row>
     <row r="621" spans="1:4" ht="15.75" customHeight="1">
       <c r="A621" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B621" s="21">
         <v>43464</v>
@@ -37846,7 +37846,7 @@
     </row>
     <row r="622" spans="1:4" ht="15.75" customHeight="1">
       <c r="A622" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B622" s="21">
         <v>43465</v>
@@ -37860,7 +37860,7 @@
     </row>
     <row r="623" spans="1:4" ht="15.75" customHeight="1">
       <c r="A623" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B623" s="21">
         <v>43376</v>
@@ -37874,7 +37874,7 @@
     </row>
     <row r="624" spans="1:4" ht="15.75" customHeight="1">
       <c r="A624" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B624" s="21">
         <v>43377</v>
@@ -37888,7 +37888,7 @@
     </row>
     <row r="625" spans="1:4" ht="15.75" customHeight="1">
       <c r="A625" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B625" s="21">
         <v>43378</v>
@@ -37902,7 +37902,7 @@
     </row>
     <row r="626" spans="1:4" ht="15.75" customHeight="1">
       <c r="A626" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B626" s="21">
         <v>43379</v>
@@ -37916,7 +37916,7 @@
     </row>
     <row r="627" spans="1:4" ht="15.75" customHeight="1">
       <c r="A627" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B627" s="21">
         <v>43380</v>
@@ -37930,7 +37930,7 @@
     </row>
     <row r="628" spans="1:4" ht="15.75" customHeight="1">
       <c r="A628" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B628" s="21">
         <v>43381</v>
@@ -37944,7 +37944,7 @@
     </row>
     <row r="629" spans="1:4" ht="15.75" customHeight="1">
       <c r="A629" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B629" s="21">
         <v>43382</v>
@@ -37958,7 +37958,7 @@
     </row>
     <row r="630" spans="1:4" ht="15.75" customHeight="1">
       <c r="A630" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B630" s="21">
         <v>43383</v>
@@ -37972,7 +37972,7 @@
     </row>
     <row r="631" spans="1:4" ht="15.75" customHeight="1">
       <c r="A631" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B631" s="21">
         <v>43384</v>
@@ -37986,7 +37986,7 @@
     </row>
     <row r="632" spans="1:4" ht="15.75" customHeight="1">
       <c r="A632" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B632" s="21">
         <v>43385</v>
@@ -38000,7 +38000,7 @@
     </row>
     <row r="633" spans="1:4" ht="15.75" customHeight="1">
       <c r="A633" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B633" s="21">
         <v>43386</v>
@@ -38014,7 +38014,7 @@
     </row>
     <row r="634" spans="1:4" ht="15.75" customHeight="1">
       <c r="A634" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B634" s="21">
         <v>43387</v>
@@ -38028,7 +38028,7 @@
     </row>
     <row r="635" spans="1:4" ht="15.75" customHeight="1">
       <c r="A635" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B635" s="21">
         <v>43388</v>
@@ -38042,7 +38042,7 @@
     </row>
     <row r="636" spans="1:4" ht="15.75" customHeight="1">
       <c r="A636" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B636" s="21">
         <v>43389</v>
@@ -38056,7 +38056,7 @@
     </row>
     <row r="637" spans="1:4" ht="15.75" customHeight="1">
       <c r="A637" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B637" s="21">
         <v>43390</v>
@@ -38070,7 +38070,7 @@
     </row>
     <row r="638" spans="1:4" ht="15.75" customHeight="1">
       <c r="A638" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B638" s="21">
         <v>43391</v>
@@ -38084,7 +38084,7 @@
     </row>
     <row r="639" spans="1:4" ht="15.75" customHeight="1">
       <c r="A639" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B639" s="21">
         <v>43392</v>
@@ -38098,7 +38098,7 @@
     </row>
     <row r="640" spans="1:4" ht="15.75" customHeight="1">
       <c r="A640" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B640" s="21">
         <v>43393</v>
@@ -38112,7 +38112,7 @@
     </row>
     <row r="641" spans="1:4" ht="15.75" customHeight="1">
       <c r="A641" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B641" s="21">
         <v>43394</v>
@@ -38126,7 +38126,7 @@
     </row>
     <row r="642" spans="1:4" ht="15.75" customHeight="1">
       <c r="A642" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B642" s="21">
         <v>43395</v>
@@ -38140,7 +38140,7 @@
     </row>
     <row r="643" spans="1:4" ht="15.75" customHeight="1">
       <c r="A643" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B643" s="21">
         <v>43396</v>
@@ -38154,7 +38154,7 @@
     </row>
     <row r="644" spans="1:4" ht="15.75" customHeight="1">
       <c r="A644" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B644" s="21">
         <v>43397</v>
@@ -38168,7 +38168,7 @@
     </row>
     <row r="645" spans="1:4" ht="15.75" customHeight="1">
       <c r="A645" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B645" s="21">
         <v>43398</v>
@@ -38182,7 +38182,7 @@
     </row>
     <row r="646" spans="1:4" ht="15.75" customHeight="1">
       <c r="A646" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B646" s="21">
         <v>43399</v>
@@ -38196,7 +38196,7 @@
     </row>
     <row r="647" spans="1:4" ht="15.75" customHeight="1">
       <c r="A647" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B647" s="21">
         <v>43400</v>
@@ -38210,7 +38210,7 @@
     </row>
     <row r="648" spans="1:4" ht="15.75" customHeight="1">
       <c r="A648" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B648" s="21">
         <v>43401</v>
@@ -38224,7 +38224,7 @@
     </row>
     <row r="649" spans="1:4" ht="15.75" customHeight="1">
       <c r="A649" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B649" s="21">
         <v>43402</v>
@@ -38238,7 +38238,7 @@
     </row>
     <row r="650" spans="1:4" ht="15.75" customHeight="1">
       <c r="A650" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B650" s="21">
         <v>43403</v>
@@ -38252,7 +38252,7 @@
     </row>
     <row r="651" spans="1:4" ht="15.75" customHeight="1">
       <c r="A651" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B651" s="21">
         <v>43404</v>
@@ -38266,7 +38266,7 @@
     </row>
     <row r="652" spans="1:4" ht="15.75" customHeight="1">
       <c r="A652" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B652" s="21">
         <v>43405</v>
@@ -38280,7 +38280,7 @@
     </row>
     <row r="653" spans="1:4" ht="15.75" customHeight="1">
       <c r="A653" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B653" s="21">
         <v>43406</v>
@@ -38294,7 +38294,7 @@
     </row>
     <row r="654" spans="1:4" ht="15.75" customHeight="1">
       <c r="A654" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B654" s="21">
         <v>43407</v>
@@ -38308,7 +38308,7 @@
     </row>
     <row r="655" spans="1:4" ht="15.75" customHeight="1">
       <c r="A655" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B655" s="21">
         <v>43408</v>
@@ -38322,7 +38322,7 @@
     </row>
     <row r="656" spans="1:4" ht="15.75" customHeight="1">
       <c r="A656" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B656" s="21">
         <v>43409</v>
@@ -38336,7 +38336,7 @@
     </row>
     <row r="657" spans="1:4" ht="15.75" customHeight="1">
       <c r="A657" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B657" s="21">
         <v>43410</v>
@@ -38350,7 +38350,7 @@
     </row>
     <row r="658" spans="1:4" ht="15.75" customHeight="1">
       <c r="A658" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B658" s="21">
         <v>43411</v>
@@ -38364,7 +38364,7 @@
     </row>
     <row r="659" spans="1:4" ht="15.75" customHeight="1">
       <c r="A659" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B659" s="21">
         <v>43412</v>
@@ -38378,7 +38378,7 @@
     </row>
     <row r="660" spans="1:4" ht="15.75" customHeight="1">
       <c r="A660" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B660" s="21">
         <v>43413</v>
@@ -38392,7 +38392,7 @@
     </row>
     <row r="661" spans="1:4" ht="15.75" customHeight="1">
       <c r="A661" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B661" s="21">
         <v>43414</v>
@@ -38406,7 +38406,7 @@
     </row>
     <row r="662" spans="1:4" ht="15.75" customHeight="1">
       <c r="A662" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B662" s="21">
         <v>43415</v>
@@ -38420,7 +38420,7 @@
     </row>
     <row r="663" spans="1:4" ht="15.75" customHeight="1">
       <c r="A663" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B663" s="21">
         <v>43416</v>
@@ -38434,7 +38434,7 @@
     </row>
     <row r="664" spans="1:4" ht="15.75" customHeight="1">
       <c r="A664" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B664" s="21">
         <v>43417</v>
@@ -38448,7 +38448,7 @@
     </row>
     <row r="665" spans="1:4" ht="15.75" customHeight="1">
       <c r="A665" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B665" s="21">
         <v>43418</v>
@@ -38462,7 +38462,7 @@
     </row>
     <row r="666" spans="1:4" ht="15.75" customHeight="1">
       <c r="A666" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B666" s="21">
         <v>43419</v>
@@ -38476,7 +38476,7 @@
     </row>
     <row r="667" spans="1:4" ht="15.75" customHeight="1">
       <c r="A667" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B667" s="21">
         <v>43420</v>
@@ -38490,7 +38490,7 @@
     </row>
     <row r="668" spans="1:4" ht="15.75" customHeight="1">
       <c r="A668" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B668" s="21">
         <v>43421</v>
@@ -38504,7 +38504,7 @@
     </row>
     <row r="669" spans="1:4" ht="15.75" customHeight="1">
       <c r="A669" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B669" s="21">
         <v>43422</v>
@@ -38518,7 +38518,7 @@
     </row>
     <row r="670" spans="1:4" ht="15.75" customHeight="1">
       <c r="A670" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B670" s="21">
         <v>43423</v>
@@ -38532,7 +38532,7 @@
     </row>
     <row r="671" spans="1:4" ht="15.75" customHeight="1">
       <c r="A671" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B671" s="21">
         <v>43424</v>
@@ -38546,7 +38546,7 @@
     </row>
     <row r="672" spans="1:4" ht="15.75" customHeight="1">
       <c r="A672" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B672" s="21">
         <v>43425</v>
@@ -38560,7 +38560,7 @@
     </row>
     <row r="673" spans="1:4" ht="15.75" customHeight="1">
       <c r="A673" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B673" s="21">
         <v>43426</v>
@@ -38574,7 +38574,7 @@
     </row>
     <row r="674" spans="1:4" ht="15.75" customHeight="1">
       <c r="A674" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B674" s="21">
         <v>43427</v>
@@ -38588,7 +38588,7 @@
     </row>
     <row r="675" spans="1:4" ht="15.75" customHeight="1">
       <c r="A675" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B675" s="21">
         <v>43428</v>
@@ -38602,7 +38602,7 @@
     </row>
     <row r="676" spans="1:4" ht="15.75" customHeight="1">
       <c r="A676" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B676" s="21">
         <v>43429</v>
@@ -38616,7 +38616,7 @@
     </row>
     <row r="677" spans="1:4" ht="15.75" customHeight="1">
       <c r="A677" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B677" s="21">
         <v>43430</v>
@@ -38630,7 +38630,7 @@
     </row>
     <row r="678" spans="1:4" ht="15.75" customHeight="1">
       <c r="A678" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B678" s="21">
         <v>43431</v>
@@ -38644,7 +38644,7 @@
     </row>
     <row r="679" spans="1:4" ht="15.75" customHeight="1">
       <c r="A679" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B679" s="21">
         <v>43432</v>
@@ -38658,7 +38658,7 @@
     </row>
     <row r="680" spans="1:4" ht="15.75" customHeight="1">
       <c r="A680" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B680" s="21">
         <v>43433</v>
@@ -38672,7 +38672,7 @@
     </row>
     <row r="681" spans="1:4" ht="15.75" customHeight="1">
       <c r="A681" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B681" s="21">
         <v>43434</v>
@@ -38686,7 +38686,7 @@
     </row>
     <row r="682" spans="1:4" ht="15.75" customHeight="1">
       <c r="A682" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B682" s="21">
         <v>43435</v>
@@ -38700,7 +38700,7 @@
     </row>
     <row r="683" spans="1:4" ht="15.75" customHeight="1">
       <c r="A683" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B683" s="21">
         <v>43436</v>
@@ -38714,7 +38714,7 @@
     </row>
     <row r="684" spans="1:4" ht="15.75" customHeight="1">
       <c r="A684" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B684" s="21">
         <v>43437</v>
@@ -38728,7 +38728,7 @@
     </row>
     <row r="685" spans="1:4" ht="15.75" customHeight="1">
       <c r="A685" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B685" s="21">
         <v>43438</v>
@@ -38742,7 +38742,7 @@
     </row>
     <row r="686" spans="1:4" ht="15.75" customHeight="1">
       <c r="A686" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B686" s="21">
         <v>43439</v>
@@ -38756,7 +38756,7 @@
     </row>
     <row r="687" spans="1:4" ht="15.75" customHeight="1">
       <c r="A687" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B687" s="21">
         <v>43440</v>
@@ -38770,7 +38770,7 @@
     </row>
     <row r="688" spans="1:4" ht="15.75" customHeight="1">
       <c r="A688" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B688" s="21">
         <v>43441</v>
@@ -38784,7 +38784,7 @@
     </row>
     <row r="689" spans="1:4" ht="15.75" customHeight="1">
       <c r="A689" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B689" s="21">
         <v>43442</v>
@@ -38798,7 +38798,7 @@
     </row>
     <row r="690" spans="1:4" ht="15.75" customHeight="1">
       <c r="A690" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B690" s="21">
         <v>43443</v>
@@ -38812,7 +38812,7 @@
     </row>
     <row r="691" spans="1:4" ht="15.75" customHeight="1">
       <c r="A691" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B691" s="21">
         <v>43444</v>
@@ -38826,7 +38826,7 @@
     </row>
     <row r="692" spans="1:4" ht="15.75" customHeight="1">
       <c r="A692" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B692" s="21">
         <v>43445</v>
@@ -38840,7 +38840,7 @@
     </row>
     <row r="693" spans="1:4" ht="15.75" customHeight="1">
       <c r="A693" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B693" s="21">
         <v>43446</v>
@@ -38854,7 +38854,7 @@
     </row>
     <row r="694" spans="1:4" ht="15.75" customHeight="1">
       <c r="A694" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B694" s="21">
         <v>43447</v>
@@ -38868,7 +38868,7 @@
     </row>
     <row r="695" spans="1:4" ht="15.75" customHeight="1">
       <c r="A695" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B695" s="21">
         <v>43448</v>
@@ -38882,7 +38882,7 @@
     </row>
     <row r="696" spans="1:4" ht="15.75" customHeight="1">
       <c r="A696" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B696" s="21">
         <v>43449</v>
@@ -38896,7 +38896,7 @@
     </row>
     <row r="697" spans="1:4" ht="15.75" customHeight="1">
       <c r="A697" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B697" s="21">
         <v>43450</v>
@@ -38910,7 +38910,7 @@
     </row>
     <row r="698" spans="1:4" ht="15.75" customHeight="1">
       <c r="A698" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B698" s="21">
         <v>43451</v>
@@ -38924,7 +38924,7 @@
     </row>
     <row r="699" spans="1:4" ht="15.75" customHeight="1">
       <c r="A699" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B699" s="21">
         <v>43452</v>
@@ -38938,7 +38938,7 @@
     </row>
     <row r="700" spans="1:4" ht="15.75" customHeight="1">
       <c r="A700" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B700" s="21">
         <v>43453</v>
@@ -38952,7 +38952,7 @@
     </row>
     <row r="701" spans="1:4" ht="15.75" customHeight="1">
       <c r="A701" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B701" s="21">
         <v>43454</v>
@@ -38966,7 +38966,7 @@
     </row>
     <row r="702" spans="1:4" ht="15.75" customHeight="1">
       <c r="A702" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B702" s="21">
         <v>43455</v>
@@ -38980,7 +38980,7 @@
     </row>
     <row r="703" spans="1:4" ht="15.75" customHeight="1">
       <c r="A703" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B703" s="21">
         <v>43456</v>
@@ -38994,7 +38994,7 @@
     </row>
     <row r="704" spans="1:4" ht="15.75" customHeight="1">
       <c r="A704" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B704" s="21">
         <v>43457</v>
@@ -39008,7 +39008,7 @@
     </row>
     <row r="705" spans="1:4" ht="15.75" customHeight="1">
       <c r="A705" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B705" s="21">
         <v>43458</v>
@@ -39022,7 +39022,7 @@
     </row>
     <row r="706" spans="1:4" ht="15.75" customHeight="1">
       <c r="A706" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B706" s="21">
         <v>43459</v>
@@ -39036,7 +39036,7 @@
     </row>
     <row r="707" spans="1:4" ht="15.75" customHeight="1">
       <c r="A707" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B707" s="21">
         <v>43460</v>
@@ -39050,7 +39050,7 @@
     </row>
     <row r="708" spans="1:4" ht="15.75" customHeight="1">
       <c r="A708" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B708" s="21">
         <v>43461</v>
@@ -39064,7 +39064,7 @@
     </row>
     <row r="709" spans="1:4" ht="15.75" customHeight="1">
       <c r="A709" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B709" s="21">
         <v>43462</v>
@@ -39078,7 +39078,7 @@
     </row>
     <row r="710" spans="1:4" ht="15.75" customHeight="1">
       <c r="A710" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B710" s="21">
         <v>43463</v>
@@ -39092,7 +39092,7 @@
     </row>
     <row r="711" spans="1:4" ht="15.75" customHeight="1">
       <c r="A711" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B711" s="21">
         <v>43464</v>
@@ -39106,7 +39106,7 @@
     </row>
     <row r="712" spans="1:4" ht="15.75" customHeight="1">
       <c r="A712" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B712" s="21">
         <v>43465</v>
@@ -39120,7 +39120,7 @@
     </row>
     <row r="713" spans="1:4" ht="15.75" customHeight="1">
       <c r="A713" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B713" s="21">
         <v>43373</v>
@@ -39134,7 +39134,7 @@
     </row>
     <row r="714" spans="1:4" ht="15.75" customHeight="1">
       <c r="A714" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B714" s="21">
         <v>43374</v>
@@ -39148,7 +39148,7 @@
     </row>
     <row r="715" spans="1:4" ht="15.75" customHeight="1">
       <c r="A715" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B715" s="21">
         <v>43375</v>
@@ -39162,7 +39162,7 @@
     </row>
     <row r="716" spans="1:4" ht="15.75" customHeight="1">
       <c r="A716" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B716" s="21">
         <v>43376</v>
@@ -39176,7 +39176,7 @@
     </row>
     <row r="717" spans="1:4" ht="15.75" customHeight="1">
       <c r="A717" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B717" s="21">
         <v>43377</v>
@@ -39190,7 +39190,7 @@
     </row>
     <row r="718" spans="1:4" ht="15.75" customHeight="1">
       <c r="A718" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B718" s="21">
         <v>43378</v>
@@ -39204,7 +39204,7 @@
     </row>
     <row r="719" spans="1:4" ht="15.75" customHeight="1">
       <c r="A719" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B719" s="21">
         <v>43379</v>
@@ -39218,7 +39218,7 @@
     </row>
     <row r="720" spans="1:4" ht="15.75" customHeight="1">
       <c r="A720" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B720" s="21">
         <v>43380</v>
@@ -39232,7 +39232,7 @@
     </row>
     <row r="721" spans="1:4" ht="15.75" customHeight="1">
       <c r="A721" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B721" s="21">
         <v>43381</v>
@@ -39246,7 +39246,7 @@
     </row>
     <row r="722" spans="1:4" ht="15.75" customHeight="1">
       <c r="A722" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B722" s="21">
         <v>43382</v>
@@ -39260,7 +39260,7 @@
     </row>
     <row r="723" spans="1:4" ht="15.75" customHeight="1">
       <c r="A723" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B723" s="21">
         <v>43383</v>
@@ -39274,7 +39274,7 @@
     </row>
     <row r="724" spans="1:4" ht="15.75" customHeight="1">
       <c r="A724" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B724" s="21">
         <v>43384</v>
@@ -39288,7 +39288,7 @@
     </row>
     <row r="725" spans="1:4" ht="15.75" customHeight="1">
       <c r="A725" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B725" s="21">
         <v>43385</v>
@@ -39302,7 +39302,7 @@
     </row>
     <row r="726" spans="1:4" ht="15.75" customHeight="1">
       <c r="A726" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B726" s="21">
         <v>43386</v>
@@ -39316,7 +39316,7 @@
     </row>
     <row r="727" spans="1:4" ht="15.75" customHeight="1">
       <c r="A727" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B727" s="21">
         <v>43387</v>
@@ -39330,7 +39330,7 @@
     </row>
     <row r="728" spans="1:4" ht="15.75" customHeight="1">
       <c r="A728" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B728" s="21">
         <v>43388</v>
@@ -39344,7 +39344,7 @@
     </row>
     <row r="729" spans="1:4" ht="15.75" customHeight="1">
       <c r="A729" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B729" s="21">
         <v>43389</v>
@@ -39358,7 +39358,7 @@
     </row>
     <row r="730" spans="1:4" ht="15.75" customHeight="1">
       <c r="A730" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B730" s="21">
         <v>43390</v>
@@ -39372,7 +39372,7 @@
     </row>
     <row r="731" spans="1:4" ht="15.75" customHeight="1">
       <c r="A731" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B731" s="21">
         <v>43391</v>
@@ -39386,7 +39386,7 @@
     </row>
     <row r="732" spans="1:4" ht="15.75" customHeight="1">
       <c r="A732" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B732" s="21">
         <v>43392</v>
@@ -39400,7 +39400,7 @@
     </row>
     <row r="733" spans="1:4" ht="15.75" customHeight="1">
       <c r="A733" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B733" s="21">
         <v>43393</v>
@@ -39414,7 +39414,7 @@
     </row>
     <row r="734" spans="1:4" ht="15.75" customHeight="1">
       <c r="A734" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B734" s="21">
         <v>43394</v>
@@ -39428,7 +39428,7 @@
     </row>
     <row r="735" spans="1:4" ht="15.75" customHeight="1">
       <c r="A735" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B735" s="21">
         <v>43395</v>
@@ -39442,7 +39442,7 @@
     </row>
     <row r="736" spans="1:4" ht="15.75" customHeight="1">
       <c r="A736" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B736" s="21">
         <v>43396</v>
@@ -39456,7 +39456,7 @@
     </row>
     <row r="737" spans="1:4" ht="15.75" customHeight="1">
       <c r="A737" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B737" s="21">
         <v>43397</v>
@@ -39470,7 +39470,7 @@
     </row>
     <row r="738" spans="1:4" ht="15.75" customHeight="1">
       <c r="A738" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B738" s="21">
         <v>43398</v>
@@ -39484,7 +39484,7 @@
     </row>
     <row r="739" spans="1:4" ht="15.75" customHeight="1">
       <c r="A739" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B739" s="21">
         <v>43399</v>
@@ -39498,7 +39498,7 @@
     </row>
     <row r="740" spans="1:4" ht="15.75" customHeight="1">
       <c r="A740" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B740" s="21">
         <v>43400</v>
@@ -39512,7 +39512,7 @@
     </row>
     <row r="741" spans="1:4" ht="15.75" customHeight="1">
       <c r="A741" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B741" s="21">
         <v>43401</v>
@@ -39526,7 +39526,7 @@
     </row>
     <row r="742" spans="1:4" ht="15.75" customHeight="1">
       <c r="A742" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B742" s="21">
         <v>43402</v>
@@ -39540,7 +39540,7 @@
     </row>
     <row r="743" spans="1:4" ht="15.75" customHeight="1">
       <c r="A743" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B743" s="21">
         <v>43403</v>
@@ -39554,7 +39554,7 @@
     </row>
     <row r="744" spans="1:4" ht="15.75" customHeight="1">
       <c r="A744" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B744" s="21">
         <v>43404</v>
@@ -39568,7 +39568,7 @@
     </row>
     <row r="745" spans="1:4" ht="15.75" customHeight="1">
       <c r="A745" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B745" s="21">
         <v>43405</v>
@@ -39582,7 +39582,7 @@
     </row>
     <row r="746" spans="1:4" ht="15.75" customHeight="1">
       <c r="A746" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B746" s="21">
         <v>43406</v>
@@ -39596,7 +39596,7 @@
     </row>
     <row r="747" spans="1:4" ht="15.75" customHeight="1">
       <c r="A747" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B747" s="21">
         <v>43407</v>
@@ -39610,7 +39610,7 @@
     </row>
     <row r="748" spans="1:4" ht="15.75" customHeight="1">
       <c r="A748" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B748" s="21">
         <v>43408</v>
@@ -39624,7 +39624,7 @@
     </row>
     <row r="749" spans="1:4" ht="15.75" customHeight="1">
       <c r="A749" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B749" s="21">
         <v>43409</v>
@@ -39638,7 +39638,7 @@
     </row>
     <row r="750" spans="1:4" ht="15.75" customHeight="1">
       <c r="A750" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B750" s="21">
         <v>43410</v>
@@ -39652,7 +39652,7 @@
     </row>
     <row r="751" spans="1:4" ht="15.75" customHeight="1">
       <c r="A751" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B751" s="21">
         <v>43411</v>
@@ -39666,7 +39666,7 @@
     </row>
     <row r="752" spans="1:4" ht="15.75" customHeight="1">
       <c r="A752" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B752" s="21">
         <v>43412</v>
@@ -39680,7 +39680,7 @@
     </row>
     <row r="753" spans="1:4" ht="15.75" customHeight="1">
       <c r="A753" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B753" s="21">
         <v>43413</v>
@@ -39694,7 +39694,7 @@
     </row>
     <row r="754" spans="1:4" ht="15.75" customHeight="1">
       <c r="A754" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B754" s="21">
         <v>43414</v>
@@ -39708,7 +39708,7 @@
     </row>
     <row r="755" spans="1:4" ht="15.75" customHeight="1">
       <c r="A755" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B755" s="21">
         <v>43415</v>
@@ -39722,7 +39722,7 @@
     </row>
     <row r="756" spans="1:4" ht="15.75" customHeight="1">
       <c r="A756" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B756" s="21">
         <v>43416</v>
@@ -39736,7 +39736,7 @@
     </row>
     <row r="757" spans="1:4" ht="15.75" customHeight="1">
       <c r="A757" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B757" s="21">
         <v>43417</v>
@@ -39750,7 +39750,7 @@
     </row>
     <row r="758" spans="1:4" ht="15.75" customHeight="1">
       <c r="A758" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B758" s="21">
         <v>43418</v>
@@ -39764,7 +39764,7 @@
     </row>
     <row r="759" spans="1:4" ht="15.75" customHeight="1">
       <c r="A759" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B759" s="21">
         <v>43419</v>
@@ -39778,7 +39778,7 @@
     </row>
     <row r="760" spans="1:4" ht="15.75" customHeight="1">
       <c r="A760" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B760" s="21">
         <v>43420</v>
@@ -39792,7 +39792,7 @@
     </row>
     <row r="761" spans="1:4" ht="15.75" customHeight="1">
       <c r="A761" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B761" s="21">
         <v>43421</v>
@@ -39806,7 +39806,7 @@
     </row>
     <row r="762" spans="1:4" ht="15.75" customHeight="1">
       <c r="A762" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B762" s="21">
         <v>43422</v>
@@ -39820,7 +39820,7 @@
     </row>
     <row r="763" spans="1:4" ht="15.75" customHeight="1">
       <c r="A763" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B763" s="21">
         <v>43423</v>
@@ -39834,7 +39834,7 @@
     </row>
     <row r="764" spans="1:4" ht="15.75" customHeight="1">
       <c r="A764" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B764" s="21">
         <v>43424</v>
@@ -39848,7 +39848,7 @@
     </row>
     <row r="765" spans="1:4" ht="15.75" customHeight="1">
       <c r="A765" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B765" s="21">
         <v>43425</v>
@@ -39862,7 +39862,7 @@
     </row>
     <row r="766" spans="1:4" ht="15.75" customHeight="1">
       <c r="A766" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B766" s="21">
         <v>43426</v>
@@ -39876,7 +39876,7 @@
     </row>
     <row r="767" spans="1:4" ht="15.75" customHeight="1">
       <c r="A767" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B767" s="21">
         <v>43427</v>
@@ -39890,7 +39890,7 @@
     </row>
     <row r="768" spans="1:4" ht="15.75" customHeight="1">
       <c r="A768" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B768" s="21">
         <v>43428</v>
@@ -39904,7 +39904,7 @@
     </row>
     <row r="769" spans="1:4" ht="15.75" customHeight="1">
       <c r="A769" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B769" s="21">
         <v>43429</v>
@@ -39918,7 +39918,7 @@
     </row>
     <row r="770" spans="1:4" ht="15.75" customHeight="1">
       <c r="A770" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B770" s="21">
         <v>43430</v>
@@ -39932,7 +39932,7 @@
     </row>
     <row r="771" spans="1:4" ht="15.75" customHeight="1">
       <c r="A771" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B771" s="21">
         <v>43431</v>
@@ -39946,7 +39946,7 @@
     </row>
     <row r="772" spans="1:4" ht="15.75" customHeight="1">
       <c r="A772" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B772" s="21">
         <v>43432</v>
@@ -39960,7 +39960,7 @@
     </row>
     <row r="773" spans="1:4" ht="15.75" customHeight="1">
       <c r="A773" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B773" s="21">
         <v>43433</v>
@@ -39974,7 +39974,7 @@
     </row>
     <row r="774" spans="1:4" ht="15.75" customHeight="1">
       <c r="A774" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B774" s="21">
         <v>43434</v>
@@ -39988,7 +39988,7 @@
     </row>
     <row r="775" spans="1:4" ht="15.75" customHeight="1">
       <c r="A775" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B775" s="21">
         <v>43435</v>
@@ -40002,7 +40002,7 @@
     </row>
     <row r="776" spans="1:4" ht="15.75" customHeight="1">
       <c r="A776" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B776" s="21">
         <v>43436</v>
@@ -40016,7 +40016,7 @@
     </row>
     <row r="777" spans="1:4" ht="15.75" customHeight="1">
       <c r="A777" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B777" s="21">
         <v>43437</v>
@@ -40030,7 +40030,7 @@
     </row>
     <row r="778" spans="1:4" ht="15.75" customHeight="1">
       <c r="A778" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B778" s="21">
         <v>43438</v>
@@ -40044,7 +40044,7 @@
     </row>
     <row r="779" spans="1:4" ht="15.75" customHeight="1">
       <c r="A779" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B779" s="21">
         <v>43439</v>
@@ -40058,7 +40058,7 @@
     </row>
     <row r="780" spans="1:4" ht="15.75" customHeight="1">
       <c r="A780" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B780" s="21">
         <v>43440</v>
@@ -40072,7 +40072,7 @@
     </row>
     <row r="781" spans="1:4" ht="15.75" customHeight="1">
       <c r="A781" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B781" s="21">
         <v>43441</v>
@@ -40086,7 +40086,7 @@
     </row>
     <row r="782" spans="1:4" ht="15.75" customHeight="1">
       <c r="A782" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B782" s="21">
         <v>43442</v>
@@ -40100,7 +40100,7 @@
     </row>
     <row r="783" spans="1:4" ht="15.75" customHeight="1">
       <c r="A783" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B783" s="21">
         <v>43443</v>
@@ -40114,7 +40114,7 @@
     </row>
     <row r="784" spans="1:4" ht="15.75" customHeight="1">
       <c r="A784" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B784" s="21">
         <v>43444</v>
@@ -40128,7 +40128,7 @@
     </row>
     <row r="785" spans="1:4" ht="15.75" customHeight="1">
       <c r="A785" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B785" s="21">
         <v>43445</v>
@@ -40142,7 +40142,7 @@
     </row>
     <row r="786" spans="1:4" ht="15.75" customHeight="1">
       <c r="A786" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B786" s="21">
         <v>43446</v>
@@ -40156,7 +40156,7 @@
     </row>
     <row r="787" spans="1:4" ht="15.75" customHeight="1">
       <c r="A787" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B787" s="21">
         <v>43447</v>
@@ -40170,7 +40170,7 @@
     </row>
     <row r="788" spans="1:4" ht="15.75" customHeight="1">
       <c r="A788" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B788" s="21">
         <v>43448</v>
@@ -40184,7 +40184,7 @@
     </row>
     <row r="789" spans="1:4" ht="15.75" customHeight="1">
       <c r="A789" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B789" s="21">
         <v>43449</v>
@@ -40198,7 +40198,7 @@
     </row>
     <row r="790" spans="1:4" ht="15.75" customHeight="1">
       <c r="A790" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B790" s="21">
         <v>43450</v>
@@ -40212,7 +40212,7 @@
     </row>
     <row r="791" spans="1:4" ht="15.75" customHeight="1">
       <c r="A791" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B791" s="21">
         <v>43451</v>
@@ -40226,7 +40226,7 @@
     </row>
     <row r="792" spans="1:4" ht="15.75" customHeight="1">
       <c r="A792" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B792" s="21">
         <v>43452</v>
@@ -40240,7 +40240,7 @@
     </row>
     <row r="793" spans="1:4" ht="15.75" customHeight="1">
       <c r="A793" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B793" s="21">
         <v>43453</v>
@@ -40254,7 +40254,7 @@
     </row>
     <row r="794" spans="1:4" ht="15.75" customHeight="1">
       <c r="A794" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B794" s="21">
         <v>43454</v>
@@ -40268,7 +40268,7 @@
     </row>
     <row r="795" spans="1:4" ht="15.75" customHeight="1">
       <c r="A795" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B795" s="21">
         <v>43455</v>
@@ -40282,7 +40282,7 @@
     </row>
     <row r="796" spans="1:4" ht="15.75" customHeight="1">
       <c r="A796" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B796" s="21">
         <v>43456</v>
@@ -40296,7 +40296,7 @@
     </row>
     <row r="797" spans="1:4" ht="15.75" customHeight="1">
       <c r="A797" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B797" s="21">
         <v>43457</v>
@@ -40310,7 +40310,7 @@
     </row>
     <row r="798" spans="1:4" ht="15.75" customHeight="1">
       <c r="A798" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B798" s="21">
         <v>43458</v>
@@ -40324,7 +40324,7 @@
     </row>
     <row r="799" spans="1:4" ht="15.75" customHeight="1">
       <c r="A799" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B799" s="21">
         <v>43459</v>
@@ -40338,7 +40338,7 @@
     </row>
     <row r="800" spans="1:4" ht="15.75" customHeight="1">
       <c r="A800" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B800" s="21">
         <v>43460</v>
@@ -40352,7 +40352,7 @@
     </row>
     <row r="801" spans="1:4" ht="15.75" customHeight="1">
       <c r="A801" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B801" s="21">
         <v>43461</v>
@@ -40366,7 +40366,7 @@
     </row>
     <row r="802" spans="1:4" ht="15.75" customHeight="1">
       <c r="A802" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B802" s="21">
         <v>43462</v>
@@ -40380,7 +40380,7 @@
     </row>
     <row r="803" spans="1:4" ht="15.75" customHeight="1">
       <c r="A803" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B803" s="21">
         <v>43463</v>
@@ -40394,7 +40394,7 @@
     </row>
     <row r="804" spans="1:4" ht="15.75" customHeight="1">
       <c r="A804" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B804" s="21">
         <v>43464</v>
@@ -40408,7 +40408,7 @@
     </row>
     <row r="805" spans="1:4" ht="15.75" customHeight="1">
       <c r="A805" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B805" s="21">
         <v>43465</v>
@@ -40628,7 +40628,7 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -40646,7 +40646,7 @@
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="25"/>
       <c r="B1" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -40656,25 +40656,25 @@
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="25"/>
       <c r="B3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="25"/>
       <c r="B4" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="25"/>
       <c r="B5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -40685,7 +40685,7 @@
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="25"/>
       <c r="B7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="25"/>
     </row>
@@ -40697,36 +40697,36 @@
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="25"/>
       <c r="B9" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="25"/>
       <c r="B10" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>38</v>
-      </c>
       <c r="D11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="48"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="26">
         <v>100</v>
@@ -40741,7 +40741,7 @@
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="26">
         <v>200</v>
@@ -40755,31 +40755,31 @@
     </row>
     <row r="14" spans="1:7" ht="113">
       <c r="B14" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>85</v>
+        <v>40</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="16" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="62.5">
-      <c r="G19" s="49" t="s">
-        <v>86</v>
+      <c r="G19" s="43" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1">
-      <c r="G20" s="48"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="22" spans="2:7" ht="15.75" customHeight="1"/>
@@ -41773,7 +41773,7 @@
   </sheetPr>
   <dimension ref="A1:L1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -41786,92 +41786,92 @@
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="18"/>
       <c r="B1" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="B2" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="B3" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="30"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="F8" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="F8" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="30"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="55"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="D10" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="F10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="32" t="s">
+      <c r="H10" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="I10" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="J10" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="K10" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="L10" s="33" t="s">
         <v>57</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
@@ -41880,28 +41880,28 @@
         <v>1234</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="35" t="s">
         <v>59</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>60</v>
       </c>
       <c r="F11" s="34">
         <v>1234</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="36">
         <v>44251</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J11" s="18">
         <v>120</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L11" s="37">
         <v>5</v>
@@ -41913,28 +41913,28 @@
         <v>5678</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>64</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>65</v>
       </c>
       <c r="F12" s="34">
         <v>1234</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="36">
         <v>44251</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J12" s="18">
         <v>100</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L12" s="37">
         <v>5</v>
@@ -41943,31 +41943,31 @@
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="34">
         <v>1234</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="36">
         <v>44252</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J13" s="18">
         <v>300</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L13" s="37">
         <v>400</v>
@@ -41978,19 +41978,19 @@
         <v>5678</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="36">
         <v>44241</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="18">
         <v>50</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L14" s="37">
         <v>2</v>
@@ -42001,19 +42001,19 @@
         <v>5678</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="36">
         <v>44242</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J15" s="18">
         <v>60</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L15" s="37">
         <v>4</v>
@@ -42024,19 +42024,19 @@
         <v>5678</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="36">
         <v>44242</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J16" s="18">
         <v>60</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L16" s="37">
         <v>4</v>
@@ -42047,19 +42047,19 @@
         <v>5678</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="36">
         <v>44250</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J17" s="18">
         <v>150</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L17" s="37">
         <v>100</v>
@@ -42070,19 +42070,19 @@
         <v>5678</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" s="36">
         <v>44250</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" s="18">
         <v>80</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L18" s="37">
         <v>5</v>
@@ -42090,23 +42090,23 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="F19" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" s="40"/>
       <c r="L19" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1"/>
@@ -42114,75 +42114,75 @@
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.5" customHeight="1">
+      <c r="B25" s="47" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="14.5" customHeight="1">
-      <c r="B25" s="53" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="22.5" customHeight="1"/>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="18"/>
-      <c r="B28" s="54" t="s">
-        <v>90</v>
+      <c r="B28" s="48" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="18"/>
-      <c r="B29" s="54" t="s">
-        <v>91</v>
+      <c r="B29" s="48" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="18"/>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B31" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B31" s="55" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B32" s="55"/>
+      <c r="B32" s="49"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="18"/>
       <c r="B33" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
@@ -42190,41 +42190,41 @@
       <c r="B36" s="29"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B37" s="50" t="s">
-        <v>94</v>
+      <c r="B37" s="44" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="40" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="41" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B42" s="51"/>
+      <c r="B42" s="45"/>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B43" s="51"/>
+      <c r="B43" s="45"/>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B44" s="51"/>
+      <c r="B44" s="45"/>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B45" s="52"/>
+      <c r="B45" s="46"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B46" s="52"/>
+      <c r="B46" s="46"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B47" s="52"/>
+      <c r="B47" s="46"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B48" s="52"/>
+      <c r="B48" s="46"/>
     </row>
     <row r="49" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B49" s="52"/>
+      <c r="B49" s="46"/>
     </row>
     <row r="50" spans="2:2" ht="15.75" customHeight="1"/>
     <row r="51" spans="2:2" ht="15.75" customHeight="1"/>
@@ -43198,15 +43198,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A6A93819D24DA4439E53B03368A1DFB7" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e173a0fc61e51b4fff85c97566ffd9b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6f4ecc09-967a-4a46-a8d0-e4b5aae47e48" xmlns:ns4="707d8c2f-4129-478b-9349-8e9edb14722d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fac0b6fe56baecc663d99a1c1d718bcd" ns3:_="" ns4:_="">
     <xsd:import namespace="6f4ecc09-967a-4a46-a8d0-e4b5aae47e48"/>
@@ -43459,6 +43450,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -43473,14 +43473,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F0516E6-A8B2-444A-B736-9A3D5FCCAEB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D49615-7890-46E2-8452-746617AA67D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43495,6 +43487,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F0516E6-A8B2-444A-B736-9A3D5FCCAEB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Copy of Marketing Analytics Quiz.xlsx
+++ b/Copy of Marketing Analytics Quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/christiana_o_mensah_accenture_com/Documents/Documents/Projects/Sql-Project-Assessment/ForcastingCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="8_{BD547CEA-C048-4FE9-A6E8-22B6959B1BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41CAC6DC-B535-456D-B4BD-B5ACECC42EFB}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{BD547CEA-C048-4FE9-A6E8-22B6959B1BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BC3A370-DB85-4357-BE9D-2F1A63746889}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecasting Case " sheetId="1" r:id="rId1"/>
@@ -40628,8 +40628,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="B16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -41773,8 +41773,8 @@
   </sheetPr>
   <dimension ref="A1:L1010"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -42125,7 +42125,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" t="s">
+      <c r="B24" s="43" t="s">
         <v>87</v>
       </c>
     </row>
@@ -43198,6 +43198,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A6A93819D24DA4439E53B03368A1DFB7" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e173a0fc61e51b4fff85c97566ffd9b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6f4ecc09-967a-4a46-a8d0-e4b5aae47e48" xmlns:ns4="707d8c2f-4129-478b-9349-8e9edb14722d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fac0b6fe56baecc663d99a1c1d718bcd" ns3:_="" ns4:_="">
     <xsd:import namespace="6f4ecc09-967a-4a46-a8d0-e4b5aae47e48"/>
@@ -43450,15 +43459,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -43473,6 +43473,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F0516E6-A8B2-444A-B736-9A3D5FCCAEB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D49615-7890-46E2-8452-746617AA67D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43487,14 +43495,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F0516E6-A8B2-444A-B736-9A3D5FCCAEB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Copy of Marketing Analytics Quiz.xlsx
+++ b/Copy of Marketing Analytics Quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/christiana_o_mensah_accenture_com/Documents/Documents/Projects/Sql-Project-Assessment/ForcastingCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{BD547CEA-C048-4FE9-A6E8-22B6959B1BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BC3A370-DB85-4357-BE9D-2F1A63746889}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{BD547CEA-C048-4FE9-A6E8-22B6959B1BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{855DD711-BFBF-4439-A15E-DD4852A23CFA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7270" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecasting Case " sheetId="1" r:id="rId1"/>
@@ -334,16 +334,10 @@
     <t>C) Select region, customer_Id from Customer where customer_id IN (select customer_id from Customer group by customer_id having count(distinct region)&gt;1 )</t>
   </si>
   <si>
-    <t xml:space="preserve">A) Select region, count(visit_id)  from Customer, Visit Where Customer.customer_id = Visit.customer_id  AND region  like 'North America' group by region  </t>
-  </si>
-  <si>
     <t>B) Select device, avg(visit_duration)  from Customer, Visit Where Customer.customer_id = Visit.customer_id group by device order by avg(visit_duration) desc</t>
   </si>
   <si>
     <t>C) Select device, visit_type, avg(visit_value)  from Customer, Visit Where Customer.customer_id = Visit.customer_id group by visit_type, device order by avg(visit_value), device Desc</t>
-  </si>
-  <si>
-    <t>D) Select product,  avg(visit_value)/count(customer_id)  AS "Average value per customer" from Visit group by  product order by "Average value per customer" Limit 1</t>
   </si>
   <si>
     <t xml:space="preserve">select </t>
@@ -356,6 +350,12 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Select region, count(visit_id)  from Customer, Visit Where Customer.customer_id = Visit.customer_id  AND region  like 'North America' AND visit_date BETWEEN '$2021-01-01' AND '$2021-12-31') group by region  </t>
+  </si>
+  <si>
+    <t>D) Select product,  sum(visit_value)/count(customer_id)  AS "Average value per customer" from Visit group by  product order by "Average value per customer" Limit 1</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>2</v>
@@ -40628,7 +40628,7 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="E16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -41773,8 +41773,8 @@
   </sheetPr>
   <dimension ref="A1:L1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -42144,24 +42144,24 @@
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="18"/>
       <c r="B28" s="48" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="18"/>
       <c r="B30" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="B31" s="49" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
@@ -42176,13 +42176,13 @@
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
@@ -42191,7 +42191,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
       <c r="B37" s="44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
@@ -43198,15 +43198,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A6A93819D24DA4439E53B03368A1DFB7" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e173a0fc61e51b4fff85c97566ffd9b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6f4ecc09-967a-4a46-a8d0-e4b5aae47e48" xmlns:ns4="707d8c2f-4129-478b-9349-8e9edb14722d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fac0b6fe56baecc663d99a1c1d718bcd" ns3:_="" ns4:_="">
     <xsd:import namespace="6f4ecc09-967a-4a46-a8d0-e4b5aae47e48"/>
@@ -43459,6 +43450,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -43473,14 +43473,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F0516E6-A8B2-444A-B736-9A3D5FCCAEB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D49615-7890-46E2-8452-746617AA67D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43495,6 +43487,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F0516E6-A8B2-444A-B736-9A3D5FCCAEB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
